--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
-  <si>
-    <t>Questions by Love Babbar:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="465">
+  <si>
+    <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
@@ -34,844 +36,844 @@
     <t>Array</t>
   </si>
   <si>
-    <t>Reverse the array</t>
-  </si>
-  <si>
-    <t>Find the maximum and minimum element in an array</t>
+    <t xml:space="preserve">Reverse the array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the maximum and minimum element in an array</t>
   </si>
   <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
-    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+    <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
-    <t>Find the Union and Intersection of the two sorted arrays.</t>
-  </si>
-  <si>
-    <t>Write a program to cyclically rotate an array by one.</t>
-  </si>
-  <si>
-    <t>find Largest sum contiguous Subarray [V. IMP]</t>
-  </si>
-  <si>
-    <t>Minimise the maximum difference between heights [V.IMP]</t>
-  </si>
-  <si>
-    <t>Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
-    <t>find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
-    <t>Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
-    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
-  </si>
-  <si>
-    <t>Next Permutation</t>
-  </si>
-  <si>
-    <t>Count Inversion</t>
-  </si>
-  <si>
-    <t>Best time to buy and Sell stock</t>
-  </si>
-  <si>
-    <t>find all pairs on integer array whose sum is equal to given number</t>
-  </si>
-  <si>
-    <t>find common elements In 3 sorted arrays</t>
-  </si>
-  <si>
-    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
-  </si>
-  <si>
-    <t>Find if there is any subarray with sum equal to 0</t>
-  </si>
-  <si>
-    <t>Find factorial of a large number</t>
+    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Permutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Inversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best time to buy and Sell stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find if there is any subarray with sum equal to 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find factorial of a large number</t>
   </si>
   <si>
     <t xml:space="preserve">find maximum product subarray </t>
   </si>
   <si>
-    <t>Find longest coinsecutive subsequence</t>
-  </si>
-  <si>
-    <t>Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
-  </si>
-  <si>
-    <t>Maximum profit by buying and selling a share atmost twice</t>
-  </si>
-  <si>
-    <t>Find whether an array is a subset of another array</t>
-  </si>
-  <si>
-    <t>Find the triplet that sum to a given value</t>
-  </si>
-  <si>
-    <t>Trapping Rain water problem</t>
-  </si>
-  <si>
-    <t>Chocolate Distribution problem</t>
-  </si>
-  <si>
-    <t>Smallest Subarray with sum greater than a given value</t>
-  </si>
-  <si>
-    <t>Three way partitioning of an array around a given value</t>
-  </si>
-  <si>
-    <t>Minimum swaps required bring elements less equal K together</t>
-  </si>
-  <si>
-    <t>Minimum no. of operations required to make an array palindrome</t>
-  </si>
-  <si>
-    <t>Median of 2 sorted arrays of equal size</t>
-  </si>
-  <si>
-    <t>Median of 2 sorted arrays of different size</t>
+    <t xml:space="preserve">Find longest coinsecutive subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum profit by buying and selling a share atmost twice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find whether an array is a subset of another array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the triplet that sum to a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trapping Rain water problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chocolate Distribution problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest Subarray with sum greater than a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three way partitioning of an array around a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum swaps required bring elements less equal K together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum no. of operations required to make an array palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median of 2 sorted arrays of equal size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median of 2 sorted arrays of different size</t>
   </si>
   <si>
     <t>Matrix</t>
   </si>
   <si>
-    <t>Spiral traversal on a Matrix</t>
-  </si>
-  <si>
-    <t>Search an element in a matriix</t>
-  </si>
-  <si>
-    <t>Find median in a row wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Find row with maximum no. of 1's</t>
-  </si>
-  <si>
-    <t>Print elements in sorted order using row-column wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Maximum size rectangle</t>
-  </si>
-  <si>
-    <t>Find a specific pair in matrix</t>
-  </si>
-  <si>
-    <t>Rotate matrix by 90 degrees</t>
-  </si>
-  <si>
-    <t>Kth smallest element in a row-cpumn wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Common elements in all rows of a given matrix</t>
+    <t xml:space="preserve">Spiral traversal on a Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search an element in a matriix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find median in a row wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find row with maximum no. of 1's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print elements in sorted order using row-column wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum size rectangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find a specific pair in matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth smallest element in a row-cpumn wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common elements in all rows of a given matrix</t>
   </si>
   <si>
     <t>String</t>
   </si>
   <si>
-    <t>Reverse a String</t>
-  </si>
-  <si>
-    <t>Check whether a String is Palindrome or not</t>
-  </si>
-  <si>
-    <t>Find Duplicate characters in a string</t>
-  </si>
-  <si>
-    <t>Why strings are immutable in Java?</t>
-  </si>
-  <si>
-    <t>Write a Code to check whether one string is a rotation of another</t>
-  </si>
-  <si>
-    <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
-  </si>
-  <si>
-    <t>Count and Say problem</t>
-  </si>
-  <si>
-    <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
-  </si>
-  <si>
-    <t>Find Longest Recurring Subsequence in String</t>
-  </si>
-  <si>
-    <t>Print all Subsequences of a string.</t>
-  </si>
-  <si>
-    <t>Print all the permutations of the given string</t>
-  </si>
-  <si>
-    <t>Split the Binary string into two substring with equal 0’s and 1’s</t>
-  </si>
-  <si>
-    <t>Word Wrap Problem [VERY IMP].</t>
-  </si>
-  <si>
-    <t>EDIT Distance [Very Imp]</t>
-  </si>
-  <si>
-    <t>Find next greater number with same set of digits. [Very Very IMP]</t>
-  </si>
-  <si>
-    <t>Balanced Parenthesis problem.[Imp]</t>
-  </si>
-  <si>
-    <t>Word break Problem[ Very Imp]</t>
-  </si>
-  <si>
-    <t>Rabin Karp Algo</t>
-  </si>
-  <si>
-    <t>KMP Algo</t>
-  </si>
-  <si>
-    <t>Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
-  </si>
-  <si>
-    <t>Minimum number of bracket reversals needed to make an expression balanced.</t>
-  </si>
-  <si>
-    <t>Count All Palindromic Subsequence in a given String.</t>
-  </si>
-  <si>
-    <t>Count of number of given string in 2D character array</t>
-  </si>
-  <si>
-    <t>Search a Word in a 2D Grid of characters.</t>
-  </si>
-  <si>
-    <t>Boyer Moore Algorithm for Pattern Searching.</t>
-  </si>
-  <si>
-    <t>Converting Roman Numerals to Decimal</t>
-  </si>
-  <si>
-    <t>Longest Common Prefix</t>
-  </si>
-  <si>
-    <t>Number of flips to make binary string alternate</t>
-  </si>
-  <si>
-    <t>Find the first repeated word in string.</t>
-  </si>
-  <si>
-    <t>Minimum number of swaps for bracket balancing.</t>
-  </si>
-  <si>
-    <t>Find the longest common subsequence between two strings.</t>
-  </si>
-  <si>
-    <t>Program to generate all possible valid IP addresses from given  string.</t>
-  </si>
-  <si>
-    <t>Write a program tofind the smallest window that contains all characters of string itself.</t>
-  </si>
-  <si>
-    <t>Rearrange characters in a string such that no two adjacent are same</t>
-  </si>
-  <si>
-    <t>Minimum characters to be added at front to make string palindrome</t>
-  </si>
-  <si>
-    <t>Given a sequence of words, print all anagrams together</t>
-  </si>
-  <si>
-    <t>Find the smallest window in a string containing all characters of another string</t>
-  </si>
-  <si>
-    <t>Recursively remove all adjacent duplicates</t>
-  </si>
-  <si>
-    <t>String matching where one string contains wildcard characters</t>
-  </si>
-  <si>
-    <t>Function to find Number of customers who could not get a computer</t>
-  </si>
-  <si>
-    <t>Transform One String to Another using Minimum Number of Given Operation</t>
-  </si>
-  <si>
-    <t>Check if two given strings are isomorphic to each other</t>
-  </si>
-  <si>
-    <t>Recursively print all sentences that can be formed from list of word lists</t>
-  </si>
-  <si>
-    <t>Searching &amp; Sorting</t>
-  </si>
-  <si>
-    <t>Find first and last positions of an element in a sorted array</t>
-  </si>
-  <si>
-    <t>Find a Fixed Point (Value equal to index) in a given array</t>
-  </si>
-  <si>
-    <t>Search in a rotated sorted array</t>
-  </si>
-  <si>
-    <t>square root of an integer</t>
-  </si>
-  <si>
-    <t>Maximum and minimum of an array using minimum number of comparisons</t>
-  </si>
-  <si>
-    <t>Optimum location of point to minimize total distance</t>
-  </si>
-  <si>
-    <t>Find the repeating and the missing</t>
-  </si>
-  <si>
-    <t>find majority element</t>
-  </si>
-  <si>
-    <t>Searching in an array where adjacent differ by at most k</t>
-  </si>
-  <si>
-    <t>find a pair with a given difference</t>
-  </si>
-  <si>
-    <t>find four elements that sum to a given value</t>
-  </si>
-  <si>
-    <t>maximum sum such that no 2 elements are adjacent</t>
-  </si>
-  <si>
-    <t>Count triplet with sum smaller than a given value</t>
-  </si>
-  <si>
-    <t>merge 2 sorted arrays</t>
-  </si>
-  <si>
-    <t>print all subarrays with 0 sum</t>
-  </si>
-  <si>
-    <t>Product array Puzzle</t>
-  </si>
-  <si>
-    <t>Sort array according to count of set bits</t>
-  </si>
-  <si>
-    <t>minimum no. of swaps required to sort the array</t>
-  </si>
-  <si>
-    <t>Bishu and Soldiers</t>
-  </si>
-  <si>
-    <t>Rasta and Kheshtak</t>
-  </si>
-  <si>
-    <t>Kth smallest number again</t>
-  </si>
-  <si>
-    <t>Find pivot element in a sorted array</t>
-  </si>
-  <si>
-    <t>K-th Element of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t>Aggressive cows</t>
-  </si>
-  <si>
-    <t>Book Allocation Problem</t>
+    <t xml:space="preserve">Reverse a String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether a String is Palindrome or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Duplicate characters in a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why strings are immutable in Java?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Code to check whether one string is a rotation of another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to check whether a string is a valid shuffle of two strings or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count and Say problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Longest Recurring Subsequence in String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all Subsequences of a string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all the permutations of the given string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split the Binary string into two substring with equal 0’s and 1’s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Wrap Problem [VERY IMP].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDIT Distance [Very Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find next greater number with same set of digits. [Very Very IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balanced Parenthesis problem.[Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word break Problem[ Very Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabin Karp Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMP Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of bracket reversals needed to make an expression balanced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count All Palindromic Subsequence in a given String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of number of given string in 2D character array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search a Word in a 2D Grid of characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boyer Moore Algorithm for Pattern Searching.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converting Roman Numerals to Decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of flips to make binary string alternate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the first repeated word in string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of swaps for bracket balancing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the longest common subsequence between two strings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program to generate all possible valid IP addresses from given  string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program tofind the smallest window that contains all characters of string itself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum characters to be added at front to make string palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a sequence of words, print all anagrams together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the smallest window in a string containing all characters of another string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursively remove all adjacent duplicates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String matching where one string contains wildcard characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function to find Number of customers who could not get a computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transform One String to Another using Minimum Number of Given Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if two given strings are isomorphic to each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursively print all sentences that can be formed from list of word lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching &amp; Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find first and last positions of an element in a sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find a Fixed Point (Value equal to index) in a given array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search in a rotated sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">square root of an integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum and minimum of an array using minimum number of comparisons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimum location of point to minimize total distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the repeating and the missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find majority element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching in an array where adjacent differ by at most k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find a pair with a given difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find four elements that sum to a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximum sum such that no 2 elements are adjacent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count triplet with sum smaller than a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge 2 sorted arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print all subarrays with 0 sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product array Puzzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort array according to count of set bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum no. of swaps required to sort the array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bishu and Soldiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rasta and Kheshtak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth smallest number again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find pivot element in a sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K-th Element of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggressive cows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book Allocation Problem</t>
   </si>
   <si>
     <t>EKOSPOJ:</t>
   </si>
   <si>
-    <t>Job Scheduling Algo</t>
-  </si>
-  <si>
-    <t>Missing Number in AP</t>
-  </si>
-  <si>
-    <t>Smallest number with atleastn trailing zeroes infactorial</t>
-  </si>
-  <si>
-    <t>Painters Partition Problem:</t>
-  </si>
-  <si>
-    <t>ROTI-Prata SPOJ</t>
-  </si>
-  <si>
-    <t>DoubleHelix SPOJ</t>
-  </si>
-  <si>
-    <t>Subset Sums</t>
-  </si>
-  <si>
-    <t>Findthe inversion count</t>
-  </si>
-  <si>
-    <t>Implement Merge-sort in-place</t>
-  </si>
-  <si>
-    <t>Partitioning and Sorting Arrays with Many Repeated Entries</t>
+    <t xml:space="preserve">Job Scheduling Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing Number in AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest number with atleastn trailing zeroes infactorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painters Partition Problem:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROTI-Prata SPOJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoubleHelix SPOJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subset Sums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findthe inversion count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Merge-sort in-place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partitioning and Sorting Arrays with Many Repeated Entries</t>
   </si>
   <si>
     <t>LinkedList</t>
   </si>
   <si>
-    <t>Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
-  </si>
-  <si>
-    <t>Reverse a Linked List in group of Given Size. [Very Imp]</t>
-  </si>
-  <si>
-    <t>Write a program to Detect loop in a linked list.</t>
-  </si>
-  <si>
-    <t>Write a program to Delete loop in a linked list.</t>
-  </si>
-  <si>
-    <t>Find the starting point of the loop. </t>
-  </si>
-  <si>
-    <t>Remove Duplicates in a sorted Linked List.</t>
-  </si>
-  <si>
-    <t>Remove Duplicates in a Un-sorted Linked List.</t>
-  </si>
-  <si>
-    <t>Write a Program to Move the last element to Front in a Linked List.</t>
-  </si>
-  <si>
-    <t>Add “1” to a number represented as a Linked List.</t>
-  </si>
-  <si>
-    <t>Add two numbers represented by linked lists.</t>
-  </si>
-  <si>
-    <t>Intersection of two Sorted Linked List.</t>
-  </si>
-  <si>
-    <t>Intersection Point of two Linked Lists.</t>
-  </si>
-  <si>
-    <t>Merge Sort For Linked lists.[Very Important]</t>
-  </si>
-  <si>
-    <t>Quicksort for Linked Lists.[Very Important]</t>
-  </si>
-  <si>
-    <t>Find the middle Element of a linked list.</t>
-  </si>
-  <si>
-    <t>Check if a linked list is a circular linked list.</t>
-  </si>
-  <si>
-    <t>Split a Circular linked list into two halves.</t>
-  </si>
-  <si>
-    <t>Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
-  </si>
-  <si>
-    <t>Deletion from a Circular Linked List.</t>
-  </si>
-  <si>
-    <t>Reverse a Doubly Linked list.</t>
-  </si>
-  <si>
-    <t>Find pairs with a given sum in a DLL.</t>
-  </si>
-  <si>
-    <t>Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
-  </si>
-  <si>
-    <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
-  </si>
-  <si>
-    <t>Rotate DoublyLinked list by N nodes.</t>
-  </si>
-  <si>
-    <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
-  </si>
-  <si>
-    <t>Can we reverse a linked list in less than O(n) ?</t>
-  </si>
-  <si>
-    <t>Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
-  </si>
-  <si>
-    <t>Flatten a Linked List</t>
-  </si>
-  <si>
-    <t>Sort a LL of 0's, 1's and 2's</t>
-  </si>
-  <si>
-    <t>Clone a linked list with next and random pointer</t>
-  </si>
-  <si>
-    <t>Merge K sorted Linked list</t>
-  </si>
-  <si>
-    <t>Multiply 2 no. represented by LL</t>
-  </si>
-  <si>
-    <t>Delete nodes which have a greater value on right side</t>
-  </si>
-  <si>
-    <t>Segregate even and odd nodes in a Linked List</t>
-  </si>
-  <si>
-    <t>Program for n’th node from the end of a Linked List</t>
-  </si>
-  <si>
-    <t>Find the first non-repeating character from a stream of characters</t>
-  </si>
-  <si>
-    <t>Binary Trees</t>
-  </si>
-  <si>
-    <t>level order traversal</t>
-  </si>
-  <si>
-    <t>Reverse Level Order traversal</t>
-  </si>
-  <si>
-    <t>Height of a tree</t>
-  </si>
-  <si>
-    <t>Diameter of a tree</t>
-  </si>
-  <si>
-    <t>Mirror of a tree</t>
-  </si>
-  <si>
-    <t>Inorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t>Preorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t>Postorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t>Left View of a tree</t>
-  </si>
-  <si>
-    <t>Right View of Tree</t>
-  </si>
-  <si>
-    <t>Top View of a tree</t>
-  </si>
-  <si>
-    <t>Bottom View of a tree</t>
-  </si>
-  <si>
-    <t>Zig-Zag traversal of a binary tree</t>
-  </si>
-  <si>
-    <t>Check if a tree is balanced or not</t>
-  </si>
-  <si>
-    <t>Diagnol Traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t>Boundary traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t>Construct Binary Tree from String with Bracket Representation</t>
-  </si>
-  <si>
-    <t>Convert Binary tree into Doubly Linked List</t>
-  </si>
-  <si>
-    <t>Convert Binary tree into Sum tree</t>
-  </si>
-  <si>
-    <t>Construct Binary tree from Inorder and preorder traversal</t>
-  </si>
-  <si>
-    <t>Find minimum swaps required to convert a Binary tree into BST</t>
-  </si>
-  <si>
-    <t>Check if Binary tree is Sum tree or not</t>
-  </si>
-  <si>
-    <t>Check if all leaf nodes are at same level or not</t>
-  </si>
-  <si>
-    <t>Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
-  </si>
-  <si>
-    <t>Check if 2 trees are mirror or not</t>
+    <t xml:space="preserve">Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a Linked List in group of Given Size. [Very Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to Detect loop in a linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to Delete loop in a linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the starting point of the loop. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Duplicates in a sorted Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Duplicates in a Un-sorted Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to Move the last element to Front in a Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add “1” to a number represented as a Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add two numbers represented by linked lists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intersection of two Sorted Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intersection Point of two Linked Lists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Sort For Linked lists.[Very Important]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quicksort for Linked Lists.[Very Important]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the middle Element of a linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a linked list is a circular linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split a Circular linked list into two halves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deletion from a Circular Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a Doubly Linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find pairs with a given sum in a DLL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate DoublyLinked list by N nodes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can we reverse a linked list in less than O(n) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flatten a Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort a LL of 0's, 1's and 2's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clone a linked list with next and random pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge K sorted Linked list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiply 2 no. represented by LL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete nodes which have a greater value on right side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segregate even and odd nodes in a Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for n’th node from the end of a Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the first non-repeating character from a stream of characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level order traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse Level Order traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirror of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left View of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right View of Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top View of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom View of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zig-Zag traversal of a binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a tree is balanced or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnol Traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boundary traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct Binary Tree from String with Bracket Representation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Binary tree into Doubly Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Binary tree into Sum tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct Binary tree from Inorder and preorder traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find minimum swaps required to convert a Binary tree into BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if Binary tree is Sum tree or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if all leaf nodes are at same level or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if 2 trees are mirror or not</t>
   </si>
   <si>
     <t xml:space="preserve">Sum of Nodes on the Longest path from root to leaf node </t>
   </si>
   <si>
-    <t>Check if given graph is tree or not.  [ IMP ]</t>
-  </si>
-  <si>
-    <t>Find Largest subtree sum in a tree</t>
+    <t xml:space="preserve">Check if given graph is tree or not.  [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Largest subtree sum in a tree</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum Sum of nodes in Binary tree such that no two are adjacent </t>
   </si>
   <si>
-    <t>Print all "K" Sum paths in a Binary tree</t>
-  </si>
-  <si>
-    <t>Find LCA in a Binary tree</t>
-  </si>
-  <si>
-    <t>Find distance between 2 nodes in a Binary tree</t>
-  </si>
-  <si>
-    <t>Kth Ancestor of node in a Binary tree</t>
-  </si>
-  <si>
-    <t>Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
-  </si>
-  <si>
-    <t>Tree Isomorphism Problem</t>
-  </si>
-  <si>
-    <t>Binary Search Trees</t>
-  </si>
-  <si>
-    <t>Fina a value in a BST</t>
-  </si>
-  <si>
-    <t>Deletion of a node in a BST</t>
-  </si>
-  <si>
-    <t>Find min and max value in a BST</t>
-  </si>
-  <si>
-    <t>Find inorder successor and inorder predecessor in a BST</t>
+    <t xml:space="preserve">Print all "K" Sum paths in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find LCA in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find distance between 2 nodes in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth Ancestor of node in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree Isomorphism Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Search Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fina a value in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deletion of a node in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find min and max value in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find inorder successor and inorder predecessor in a BST</t>
   </si>
   <si>
     <t xml:space="preserve">Check if a tree is a BST or not </t>
   </si>
   <si>
-    <t>Populate Inorder successor of all nodes</t>
-  </si>
-  <si>
-    <t>Find LCA  of 2 nodes in a BST</t>
-  </si>
-  <si>
-    <t>Construct BST from preorder traversal</t>
-  </si>
-  <si>
-    <t>Convert Binary tree into BST</t>
-  </si>
-  <si>
-    <t>Convert a normal BST into a Balanced BST</t>
-  </si>
-  <si>
-    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
-  </si>
-  <si>
-    <t>Find Kth largest element in a BST</t>
-  </si>
-  <si>
-    <t>Find Kth smallest element in a BST</t>
-  </si>
-  <si>
-    <t>Count pairs from 2 BST whose sum is equal to given value "X"</t>
-  </si>
-  <si>
-    <t>Find the median of BST in O(n) time and O(1) space</t>
-  </si>
-  <si>
-    <t>Count BST ndoes that lie in a given range</t>
-  </si>
-  <si>
-    <t>Replace every element with the least greater element on its right</t>
-  </si>
-  <si>
-    <t>Given "n" appointments, find the conflicting appointments</t>
-  </si>
-  <si>
-    <t>Check preorder is valid or not</t>
-  </si>
-  <si>
-    <t>Check whether BST contains Dead end</t>
-  </si>
-  <si>
-    <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
-  </si>
-  <si>
-    <t>Flatten BST to sorted list</t>
+    <t xml:space="preserve">Populate Inorder successor of all nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find LCA  of 2 nodes in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct BST from preorder traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Binary tree into BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert a normal BST into a Balanced BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge two BST [ V.V.V&gt;IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Kth largest element in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Kth smallest element in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count pairs from 2 BST whose sum is equal to given value "X"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the median of BST in O(n) time and O(1) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count BST ndoes that lie in a given range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replace every element with the least greater element on its right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given "n" appointments, find the conflicting appointments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check preorder is valid or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether BST contains Dead end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flatten BST to sorted list</t>
   </si>
   <si>
     <t>Greedy</t>
   </si>
   <si>
-    <t>Activity Selection Problem</t>
-  </si>
-  <si>
-    <t>Job SequencingProblem</t>
-  </si>
-  <si>
-    <t>Huffman Coding</t>
-  </si>
-  <si>
-    <t>Water Connection Problem</t>
-  </si>
-  <si>
-    <t>Fractional Knapsack Problem</t>
-  </si>
-  <si>
-    <t>Greedy Algorithm to find Minimum number of Coins</t>
-  </si>
-  <si>
-    <t>Maximum trains for which stoppage can be provided</t>
-  </si>
-  <si>
-    <t>Minimum Platforms Problem</t>
-  </si>
-  <si>
-    <t>Buy Maximum Stocks if i stocks can be bought on i-th day</t>
-  </si>
-  <si>
-    <t>Find the minimum and maximum amount to buy all N candies</t>
-  </si>
-  <si>
-    <t>Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t>Minimum Cost to cut a board into squares</t>
-  </si>
-  <si>
-    <t>Check if it is possible to survive on Island</t>
-  </si>
-  <si>
-    <t>Find maximum meetings in one room</t>
-  </si>
-  <si>
-    <t>Maximum product subset of an array</t>
-  </si>
-  <si>
-    <t>Maximize array sum after K negations</t>
-  </si>
-  <si>
-    <t>Maximize the sum of arr[i]*i</t>
-  </si>
-  <si>
-    <t>Maximum sum of absolute difference of an array</t>
-  </si>
-  <si>
-    <t>Maximize sum of consecutive differences in a circular array</t>
-  </si>
-  <si>
-    <t>Minimum sum of absolute difference of pairs of two arrays</t>
-  </si>
-  <si>
-    <t>Program for Shortest Job First (or SJF) CPU Scheduling</t>
-  </si>
-  <si>
-    <t>Program for Least Recently Used (LRU) Page Replacement algorithm</t>
-  </si>
-  <si>
-    <t>Smallest subset with sum greater than all other elements</t>
-  </si>
-  <si>
-    <t>Chocolate Distribution Problem</t>
-  </si>
-  <si>
-    <t>DEFKIN -Defense of a Kingdom</t>
-  </si>
-  <si>
-    <t>DIEHARD -DIE HARD</t>
-  </si>
-  <si>
-    <t>GERGOVIA -Wine trading in Gergovia</t>
-  </si>
-  <si>
-    <t>Picking Up Chicks</t>
-  </si>
-  <si>
-    <t>CHOCOLA –Chocolate</t>
-  </si>
-  <si>
-    <t>ARRANGE -Arranging Amplifiers</t>
-  </si>
-  <si>
-    <t>K Centers Problem</t>
-  </si>
-  <si>
-    <t>Minimum Cost of ropes</t>
-  </si>
-  <si>
-    <t>Find smallest number with given number of digits and sum of digits</t>
-  </si>
-  <si>
-    <t>Find maximum sum possible equal sum of three stacks</t>
+    <t xml:space="preserve">Activity Selection Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job SequencingProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huffman Coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Connection Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fractional Knapsack Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greedy Algorithm to find Minimum number of Coins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum trains for which stoppage can be provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Platforms Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy Maximum Stocks if i stocks can be bought on i-th day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the minimum and maximum amount to buy all N candies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Cost to cut a board into squares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if it is possible to survive on Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find maximum meetings in one room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum product subset of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize array sum after K negations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize the sum of arr[i]*i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum of absolute difference of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize sum of consecutive differences in a circular array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum sum of absolute difference of pairs of two arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for Shortest Job First (or SJF) CPU Scheduling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for Least Recently Used (LRU) Page Replacement algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest subset with sum greater than all other elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chocolate Distribution Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFKIN -Defense of a Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEHARD -DIE HARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERGOVIA -Wine trading in Gergovia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picking Up Chicks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOCOLA –Chocolate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRANGE -Arranging Amplifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K Centers Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Cost of ropes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find smallest number with given number of digits and sum of digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find maximum sum possible equal sum of three stacks</t>
   </si>
   <si>
     <t>BackTracking</t>
   </si>
   <si>
-    <t>Rat in a maze Problem</t>
-  </si>
-  <si>
-    <t>Printing all solutions in N-Queen Problem</t>
-  </si>
-  <si>
-    <t>Word Break Problem using Backtracking</t>
-  </si>
-  <si>
-    <t>Remove Invalid Parentheses</t>
-  </si>
-  <si>
-    <t>Sudoku Solver</t>
-  </si>
-  <si>
-    <t>m Coloring Problem</t>
-  </si>
-  <si>
-    <t>Print all palindromic partitions of a string</t>
-  </si>
-  <si>
-    <t>Subset Sum Problem</t>
-  </si>
-  <si>
-    <t>The Knight’s tour problem</t>
-  </si>
-  <si>
-    <t>Tug of War</t>
-  </si>
-  <si>
-    <t>Find shortest safe route in a path with landmines</t>
-  </si>
-  <si>
-    <t>Combinational Sum</t>
-  </si>
-  <si>
-    <t>Find Maximum number possible by doing at-most K swaps</t>
+    <t xml:space="preserve">Rat in a maze Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing all solutions in N-Queen Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Break Problem using Backtracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudoku Solver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m Coloring Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all palindromic partitions of a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subset Sum Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Knight’s tour problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tug of War</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find shortest safe route in a path with landmines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinational Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Maximum number possible by doing at-most K swaps</t>
   </si>
   <si>
     <t xml:space="preserve">Print all permutations of a string </t>
   </si>
   <si>
-    <t>Find if there is a path of more than k length from a source</t>
-  </si>
-  <si>
-    <t>Longest Possible Route in a Matrix with Hurdles</t>
-  </si>
-  <si>
-    <t>Print all possible paths from top left to bottom right of a mXn matrix</t>
-  </si>
-  <si>
-    <t>Partition of a set intoK subsets with equal sum</t>
-  </si>
-  <si>
-    <t>Find the K-th Permutation Sequence of first N natural numbers</t>
-  </si>
-  <si>
-    <t>Stacks &amp; Queues</t>
+    <t xml:space="preserve">Find if there is a path of more than k length from a source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Possible Route in a Matrix with Hurdles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all possible paths from top left to bottom right of a mXn matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition of a set intoK subsets with equal sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the K-th Permutation Sequence of first N natural numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacks &amp; Queues</t>
   </si>
   <si>
     <t xml:space="preserve"> Implement Stack from Scratch</t>
@@ -880,175 +882,175 @@
     <t xml:space="preserve"> Implement Queue from Scratch</t>
   </si>
   <si>
-    <t>Implement 2 stack in an array</t>
-  </si>
-  <si>
-    <t>find the middle element of a stack</t>
-  </si>
-  <si>
-    <t>Implement "N" stacks in an Array</t>
-  </si>
-  <si>
-    <t>Check the expression has valid or Balanced parenthesis or not.</t>
-  </si>
-  <si>
-    <t>Reverse a String using Stack</t>
-  </si>
-  <si>
-    <t>Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
-  </si>
-  <si>
-    <t>Find the next Greater element</t>
-  </si>
-  <si>
-    <t>The celebrity Problem</t>
-  </si>
-  <si>
-    <t>Arithmetic Expression evaluation</t>
-  </si>
-  <si>
-    <t>Evaluation of Postfix expression</t>
-  </si>
-  <si>
-    <t>Implement a method to insert an element at its bottom without using any other data structure.</t>
-  </si>
-  <si>
-    <t>Reverse a stack using recursion</t>
-  </si>
-  <si>
-    <t>Sort a Stack using recursion</t>
-  </si>
-  <si>
-    <t>Merge Overlapping Intervals</t>
-  </si>
-  <si>
-    <t>Largest rectangular Area in Histogram</t>
-  </si>
-  <si>
-    <t>Length of the Longest Valid Substring</t>
-  </si>
-  <si>
-    <t>Expression contains redundant bracket or not</t>
-  </si>
-  <si>
-    <t>Implement Stack using Queue</t>
-  </si>
-  <si>
-    <t>Implement Stack using Deque</t>
-  </si>
-  <si>
-    <t>Stack Permutations (Check if an array is stack permutation of other)</t>
+    <t xml:space="preserve">Implement 2 stack in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find the middle element of a stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement "N" stacks in an Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the expression has valid or Balanced parenthesis or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a String using Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the next Greater element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The celebrity Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arithmetic Expression evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation of Postfix expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a method to insert an element at its bottom without using any other data structure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a stack using recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort a Stack using recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Overlapping Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest rectangular Area in Histogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of the Longest Valid Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression contains redundant bracket or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Stack using Queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Stack using Deque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack Permutations (Check if an array is stack permutation of other)</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Queue using Stack  </t>
   </si>
   <si>
-    <t>Implement "n" queue in an array</t>
-  </si>
-  <si>
-    <t>Implement a Circular queue</t>
-  </si>
-  <si>
-    <t>LRU Cache Implementationa</t>
-  </si>
-  <si>
-    <t>Reverse a Queue using recursion</t>
-  </si>
-  <si>
-    <t>Reverse the first “K” elements of a queue</t>
-  </si>
-  <si>
-    <t>Interleave the first half of the queue with second half</t>
-  </si>
-  <si>
-    <t>Find the first circular tour that visits all Petrol Pumps</t>
-  </si>
-  <si>
-    <t>Minimum time required to rot all oranges</t>
-  </si>
-  <si>
-    <t>Distance of nearest cell having 1 in a binary matrix</t>
-  </si>
-  <si>
-    <t>First negative integer in every window of size “k”</t>
-  </si>
-  <si>
-    <t>Check if all levels of two trees are anagrams or not.</t>
-  </si>
-  <si>
-    <t>Sum of minimum and maximum elements of all subarrays of size “k”.</t>
-  </si>
-  <si>
-    <t>Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
-  </si>
-  <si>
-    <t>Queue based approach or first non-repeating character in a stream.</t>
-  </si>
-  <si>
-    <t>Next Smaller Element</t>
+    <t xml:space="preserve">Implement "n" queue in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a Circular queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRU Cache Implementationa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a Queue using recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse the first “K” elements of a queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interleave the first half of the queue with second half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the first circular tour that visits all Petrol Pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum time required to rot all oranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance of nearest cell having 1 in a binary matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First negative integer in every window of size “k”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if all levels of two trees are anagrams or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of minimum and maximum elements of all subarrays of size “k”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queue based approach or first non-repeating character in a stream.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Smaller Element</t>
   </si>
   <si>
     <t>Heap</t>
   </si>
   <si>
-    <t>Implement a Maxheap/MinHeap using arrays and recursion.</t>
-  </si>
-  <si>
-    <t>Sort an Array using heap. (HeapSort)</t>
-  </si>
-  <si>
-    <t>Maximum of all subarrays of size k.</t>
-  </si>
-  <si>
-    <t>“k” largest element in an array</t>
-  </si>
-  <si>
-    <t>Kth smallest and largest element in an unsorted array</t>
-  </si>
-  <si>
-    <t>Merge “K” sorted arrays. [ IMP ]</t>
-  </si>
-  <si>
-    <t>Merge 2 Binary Max Heaps</t>
-  </si>
-  <si>
-    <t>Kth largest sum continuous subarrays</t>
-  </si>
-  <si>
-    <t>Leetcode- reorganize strings</t>
-  </si>
-  <si>
-    <t>Merge “K” Sorted Linked Lists [V.IMP]</t>
-  </si>
-  <si>
-    <t>Smallest range in “K” Lists</t>
-  </si>
-  <si>
-    <t>Median in a stream of Integers</t>
-  </si>
-  <si>
-    <t>Check if a Binary Tree is Heap</t>
-  </si>
-  <si>
-    <t>Connect “n” ropes with minimum cost</t>
-  </si>
-  <si>
-    <t>Convert BST to Min Heap</t>
-  </si>
-  <si>
-    <t>Convert min heap to max heap</t>
-  </si>
-  <si>
-    <t>Rearrange characters in a string such that no two adjacent are same.</t>
-  </si>
-  <si>
-    <t>Minimum sum of two numbers formed from digits of an array</t>
+    <t xml:space="preserve">Implement a Maxheap/MinHeap using arrays and recursion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort an Array using heap. (HeapSort)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum of all subarrays of size k.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“k” largest element in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth smallest and largest element in an unsorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge “K” sorted arrays. [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge 2 Binary Max Heaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth largest sum continuous subarrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leetcode- reorganize strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge “K” Sorted Linked Lists [V.IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest range in “K” Lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median in a stream of Integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a Binary Tree is Heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect “n” ropes with minimum cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert BST to Min Heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert min heap to max heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum sum of two numbers formed from digits of an array</t>
   </si>
   <si>
     <t>Graph</t>
   </si>
   <si>
-    <t>Create a Graph, print it</t>
+    <t xml:space="preserve">Create a Graph, print it</t>
   </si>
   <si>
     <t xml:space="preserve">Implement BFS algorithm </t>
@@ -1063,473 +1065,767 @@
     <t xml:space="preserve">Detect Cycle in UnDirected Graph using BFS/DFS Algo </t>
   </si>
   <si>
-    <t>Search in a Maze</t>
-  </si>
-  <si>
-    <t>Minimum Step by Knight</t>
-  </si>
-  <si>
-    <t>flood fill algo</t>
-  </si>
-  <si>
-    <t>Clone a graph</t>
-  </si>
-  <si>
-    <t>Making wired Connections</t>
+    <t xml:space="preserve">Search in a Maze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Step by Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flood fill algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clone a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Making wired Connections</t>
   </si>
   <si>
     <t xml:space="preserve">word Ladder </t>
   </si>
   <si>
-    <t>Dijkstra algo</t>
+    <t xml:space="preserve">Dijkstra algo</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Topological Sort </t>
   </si>
   <si>
-    <t>Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
-  </si>
-  <si>
-    <t>Find the no. of Isalnds</t>
-  </si>
-  <si>
-    <t>Given a sorted Dictionary of an Alien Language, find order of characters</t>
-  </si>
-  <si>
-    <t>Implement Kruksal’sAlgorithm</t>
-  </si>
-  <si>
-    <t>Implement Prim’s Algorithm</t>
-  </si>
-  <si>
-    <t>Total no. of Spanning tree in a graph</t>
-  </si>
-  <si>
-    <t>Implement Bellman Ford Algorithm</t>
-  </si>
-  <si>
-    <t>Implement Floyd warshallAlgorithm</t>
-  </si>
-  <si>
-    <t>Travelling Salesman Problem</t>
-  </si>
-  <si>
-    <t>Graph ColouringProblem</t>
-  </si>
-  <si>
-    <t>Snake and Ladders Problem</t>
-  </si>
-  <si>
-    <t>Find bridge in a graph</t>
-  </si>
-  <si>
-    <t>Count Strongly connected Components(Kosaraju Algo)</t>
-  </si>
-  <si>
-    <t>Check whether a graph is Bipartite or Not</t>
-  </si>
-  <si>
-    <t>Detect Negative cycle in a graph</t>
-  </si>
-  <si>
-    <t>Longest path in a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t>Journey to the Moon</t>
-  </si>
-  <si>
-    <t>Cheapest Flights Within K Stops</t>
-  </si>
-  <si>
-    <t>Oliver and the Game</t>
-  </si>
-  <si>
-    <t>Water Jug problem using BFS</t>
-  </si>
-  <si>
-    <t>Find if there is a path of more thank length from a source</t>
+    <t xml:space="preserve">Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find whether it is possible to finish all tasks or not from given dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the no. of Isalnds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a sorted Dictionary of an Alien Language, find order of characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Kruksal’sAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Prim’s Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total no. of Spanning tree in a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Bellman Ford Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Floyd warshallAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travelling Salesman Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph ColouringProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake and Ladders Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find bridge in a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Strongly connected Components(Kosaraju Algo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether a graph is Bipartite or Not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detect Negative cycle in a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest path in a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journey to the Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliver and the Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Jug problem using BFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find if there is a path of more thank length from a source</t>
   </si>
   <si>
     <t>M-ColouringProblem</t>
   </si>
   <si>
-    <t>Minimum edges to reverse o make path from source to destination</t>
-  </si>
-  <si>
-    <t>Paths to travel each nodes using each edge(Seven Bridges)</t>
-  </si>
-  <si>
-    <t>Vertex Cover Problem</t>
-  </si>
-  <si>
-    <t>Chinese Postman or Route Inspection</t>
-  </si>
-  <si>
-    <t>Number of Triangles in a Directed and Undirected Graph</t>
-  </si>
-  <si>
-    <t>Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t>Two Clique Problem</t>
+    <t xml:space="preserve">Minimum edges to reverse o make path from source to destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paths to travel each nodes using each edge(Seven Bridges)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertex Cover Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese Postman or Route Inspection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Triangles in a Directed and Undirected Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Clique Problem</t>
   </si>
   <si>
     <t>Trie</t>
   </si>
   <si>
-    <t>Construct a trie from scratch</t>
-  </si>
-  <si>
-    <t>Find shortest unique prefix for every word in a given list</t>
-  </si>
-  <si>
-    <t>Word Break Problem | (Trie solution)</t>
-  </si>
-  <si>
-    <t>Implement a Phone Directory</t>
-  </si>
-  <si>
-    <t>Print unique rows in a given boolean matrix</t>
-  </si>
-  <si>
-    <t>Dynamic Programming</t>
-  </si>
-  <si>
-    <t>Coin ChangeProblem</t>
-  </si>
-  <si>
-    <t>Knapsack Problem</t>
-  </si>
-  <si>
-    <t>Binomial CoefficientProblem</t>
-  </si>
-  <si>
-    <t>Permutation CoefficientProblem</t>
-  </si>
-  <si>
-    <t>Program for nth Catalan Number</t>
-  </si>
-  <si>
-    <t>Matrix Chain Multiplication </t>
-  </si>
-  <si>
-    <t>Edit Distance</t>
-  </si>
-  <si>
-    <t>Friends Pairing Problem</t>
-  </si>
-  <si>
-    <t>Gold Mine Problem</t>
-  </si>
-  <si>
-    <t>Assembly Line SchedulingProblem</t>
-  </si>
-  <si>
-    <t>Painting the Fenceproblem</t>
-  </si>
-  <si>
-    <t>Maximize The Cut Segments</t>
-  </si>
-  <si>
-    <t>Longest Common Subsequence</t>
-  </si>
-  <si>
-    <t>Longest Repeated Subsequence</t>
-  </si>
-  <si>
-    <t>Longest Increasing Subsequence</t>
-  </si>
-  <si>
-    <t>Space Optimized Solution of LCS</t>
-  </si>
-  <si>
-    <t>LCS (Longest Common Subsequence) of three strings</t>
-  </si>
-  <si>
-    <t>Maximum Sum Increasing Subsequence</t>
-  </si>
-  <si>
-    <t>Count all subsequences having product less than K</t>
-  </si>
-  <si>
-    <t>Longest subsequence such that difference between adjacent is one</t>
-  </si>
-  <si>
-    <t>Maximum subsequence sum such that no three are consecutive</t>
-  </si>
-  <si>
-    <t>Egg Dropping Problem</t>
-  </si>
-  <si>
-    <t>Maximum Length Chain of Pairs</t>
-  </si>
-  <si>
-    <t>Maximum size square sub-matrix with all 1s</t>
-  </si>
-  <si>
-    <t>Maximum sum of pairs with specific difference</t>
-  </si>
-  <si>
-    <t>Min Cost PathProblem</t>
-  </si>
-  <si>
-    <t>Maximum difference of zeros and ones in binary string</t>
-  </si>
-  <si>
-    <t>Minimum number of jumps to reach end</t>
-  </si>
-  <si>
-    <t>Minimum cost to fill given weight in a bag</t>
-  </si>
-  <si>
-    <t>Minimum removals from array to make max –min &lt;= K</t>
-  </si>
-  <si>
-    <t>Longest Common Substring</t>
-  </si>
-  <si>
-    <t>Count number of ways to reacha given score in a game</t>
-  </si>
-  <si>
-    <t>Count Balanced Binary Trees of Height h</t>
-  </si>
-  <si>
-    <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
-  </si>
-  <si>
-    <t>Smallest sum contiguous subarray</t>
-  </si>
-  <si>
-    <t>Unbounded Knapsack (Repetition of items allowed)</t>
-  </si>
-  <si>
-    <t>Word Break Problem</t>
-  </si>
-  <si>
-    <t>Largest Independent Set Problem</t>
-  </si>
-  <si>
-    <t>Partition problem</t>
-  </si>
-  <si>
-    <t>Longest Palindromic Subsequence</t>
-  </si>
-  <si>
-    <t>Count All Palindromic Subsequence in a given String</t>
-  </si>
-  <si>
-    <t>Longest Palindromic Substring</t>
-  </si>
-  <si>
-    <t>Longest alternating subsequence</t>
-  </si>
-  <si>
-    <t>Weighted Job Scheduling</t>
-  </si>
-  <si>
-    <t>Coin game winner where every player has three choices</t>
-  </si>
-  <si>
-    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
-  </si>
-  <si>
-    <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
-  </si>
-  <si>
-    <t>Optimal Strategy for a Game</t>
-  </si>
-  <si>
-    <t>Optimal Binary Search Tree</t>
-  </si>
-  <si>
-    <t>Palindrome PartitioningProblem</t>
-  </si>
-  <si>
-    <t>Word Wrap Problem</t>
-  </si>
-  <si>
-    <t>Mobile Numeric Keypad Problem [ IMP ]</t>
-  </si>
-  <si>
-    <t>Boolean Parenthesization Problem</t>
-  </si>
-  <si>
-    <t>Largest rectangular sub-matrix whose sum is 0</t>
-  </si>
-  <si>
-    <t>Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
-  </si>
-  <si>
-    <t>Maximum sum rectangle in a 2D matrix</t>
-  </si>
-  <si>
-    <t>Maximum profit by buying and selling a share at most k times</t>
-  </si>
-  <si>
-    <t>Find if a string is interleaved of two other strings</t>
-  </si>
-  <si>
-    <t>Maximum Length of Pair Chain</t>
-  </si>
-  <si>
-    <t>Bit Manipulation</t>
-  </si>
-  <si>
-    <t>Count set bits in an integer</t>
-  </si>
-  <si>
-    <t>Find the two non-repeating elements in an array of repeating elements</t>
-  </si>
-  <si>
-    <t>Count number of bits to be flipped to convert A to B</t>
-  </si>
-  <si>
-    <t>Count total set bits in all numbers from 1 to n</t>
-  </si>
-  <si>
-    <t>Program to find whether a no is power of two</t>
-  </si>
-  <si>
-    <t>Find position of the only set bit</t>
-  </si>
-  <si>
-    <t>Copy set bits in a range</t>
-  </si>
-  <si>
-    <t>Divide two integers without using multiplication, division and mod operator</t>
-  </si>
-  <si>
-    <t>Calculate square of a number without using *, / and pow()</t>
-  </si>
-  <si>
-    <t>Power Set</t>
+    <t xml:space="preserve">Construct a trie from scratch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find shortest unique prefix for every word in a given list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Break Problem | (Trie solution)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a Phone Directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print unique rows in a given boolean matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coin ChangeProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knapsack Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binomial CoefficientProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permutation CoefficientProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for nth Catalan Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrix Chain Multiplication </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friends Pairing Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Mine Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assembly Line SchedulingProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painting the Fenceproblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize The Cut Segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Repeated Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space Optimized Solution of LCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS (Longest Common Subsequence) of three strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Sum Increasing Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count all subsequences having product less than K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest subsequence such that difference between adjacent is one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum subsequence sum such that no three are consecutive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg Dropping Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Length Chain of Pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum size square sub-matrix with all 1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum of pairs with specific difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Cost PathProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum difference of zeros and ones in binary string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of jumps to reach end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum cost to fill given weight in a bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum removals from array to make max –min &lt;= K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count number of ways to reacha given score in a game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Balanced Binary Trees of Height h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest sum contiguous subarray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unbounded Knapsack (Repetition of items allowed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Break Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest Independent Set Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count All Palindromic Subsequence in a given String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest alternating subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Job Scheduling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coin game winner where every player has three choices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum profit by buying and selling a share at most twice [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal Strategy for a Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palindrome PartitioningProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Wrap Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Numeric Keypad Problem [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boolean Parenthesization Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest rectangular sub-matrix whose sum is 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum rectangle in a 2D matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum profit by buying and selling a share at most k times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find if a string is interleaved of two other strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit Manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count set bits in an integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the two non-repeating elements in an array of repeating elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count number of bits to be flipped to convert A to B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count total set bits in all numbers from 1 to n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program to find whether a no is power of two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find position of the only set bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy set bits in a range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divide two integers without using multiplication, division and mod operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate square of a number without using *, / and pow()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
-      <sz val="12.0"/>
+      <name val="Arial"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="12"/>
     </font>
     <font>
-      <b/>
-      <sz val="20.0"/>
-      <color theme="1"/>
       <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12.0"/>
-      <color theme="10"/>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="1"/>
+      <sz val="20"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="16.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color theme="10"/>
+      <sz val="12"/>
+      <u val="single"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <u/>
-      <sz val="16.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="16"/>
+      <u val="single"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="15.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color indexed="64"/>
+      <sz val="15"/>
     </font>
     <font>
-      <u/>
-      <sz val="16.0"/>
       <color theme="10"/>
+      <sz val="16"/>
+      <u val="single"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="16"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="15.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16.0"/>
-      <color theme="10"/>
+      <sz val="15"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="12">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1586,7 +1882,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1612,7 +1908,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1664,16 +1960,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1689,7 +1997,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1719,23 +2027,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <pageSetUpPr/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.220000000000001" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.44"/>
-    <col customWidth="1" min="2" max="2" width="123.0"/>
-    <col customWidth="1" min="3" max="3" width="27.44"/>
-    <col customWidth="1" min="4" max="26" width="10.56"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="28.440000000000001"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="123"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="27.440000000000001"/>
+    <col bestFit="1" customWidth="1" min="4" max="26" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1772,7 +2084,7 @@
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1783,7 +2095,7 @@
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1794,7 +2106,7 @@
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1805,7 +2117,7 @@
       <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1816,7 +2128,7 @@
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1827,7 +2139,7 @@
       <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1838,7 +2150,7 @@
       <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1849,7 +2161,7 @@
       <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1860,7 +2172,7 @@
       <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1871,7 +2183,7 @@
       <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1882,7 +2194,7 @@
       <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1893,7 +2205,7 @@
       <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1904,7 +2216,7 @@
       <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1915,7 +2227,7 @@
       <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1926,7 +2238,7 @@
       <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1937,7 +2249,7 @@
       <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2162,20 +2474,20 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="8"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -2186,7 +2498,7 @@
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -2197,7 +2509,7 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -2208,7 +2520,7 @@
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -2219,7 +2531,7 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -2230,7 +2542,7 @@
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -2241,7 +2553,7 @@
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -2252,7 +2564,7 @@
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -2263,7 +2575,7 @@
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -2274,7 +2586,7 @@
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -2287,7 +2599,7 @@
     <row r="54" ht="15.75" customHeight="1"/>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="8"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="5"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -2327,7 +2639,7 @@
       <c r="A59" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -2765,8 +3077,8 @@
     </row>
     <row r="99" ht="15.75" customHeight="1"/>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="9"/>
-      <c r="B100" s="8"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="5"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
@@ -3167,11 +3479,11 @@
     </row>
     <row r="137" ht="15.75" customHeight="1"/>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="B138" s="8"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="5"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B139" s="7" t="s">
@@ -3182,7 +3494,7 @@
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B140" s="7" t="s">
@@ -3193,7 +3505,7 @@
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B141" s="7" t="s">
@@ -3204,7 +3516,7 @@
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B142" s="7" t="s">
@@ -3215,7 +3527,7 @@
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B143" s="7" t="s">
@@ -3226,7 +3538,7 @@
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B144" s="7" t="s">
@@ -3237,7 +3549,7 @@
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B145" s="7" t="s">
@@ -3248,7 +3560,7 @@
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B146" s="7" t="s">
@@ -3259,7 +3571,7 @@
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B147" s="7" t="s">
@@ -3270,7 +3582,7 @@
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B148" s="7" t="s">
@@ -3281,7 +3593,7 @@
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B149" s="7" t="s">
@@ -3292,7 +3604,7 @@
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="9" t="s">
+      <c r="A150" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B150" s="7" t="s">
@@ -3303,7 +3615,7 @@
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="9" t="s">
+      <c r="A151" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B151" s="7" t="s">
@@ -3314,7 +3626,7 @@
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="9" t="s">
+      <c r="A152" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B152" s="7" t="s">
@@ -3325,7 +3637,7 @@
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="9" t="s">
+      <c r="A153" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B153" s="7" t="s">
@@ -3336,7 +3648,7 @@
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="9" t="s">
+      <c r="A154" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B154" s="7" t="s">
@@ -3347,7 +3659,7 @@
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="9" t="s">
+      <c r="A155" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B155" s="7" t="s">
@@ -3358,7 +3670,7 @@
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="9" t="s">
+      <c r="A156" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B156" s="7" t="s">
@@ -3369,7 +3681,7 @@
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="9" t="s">
+      <c r="A157" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B157" s="7" t="s">
@@ -3380,7 +3692,7 @@
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B158" s="7" t="s">
@@ -3391,7 +3703,7 @@
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B159" s="7" t="s">
@@ -3402,7 +3714,7 @@
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="9" t="s">
+      <c r="A160" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B160" s="7" t="s">
@@ -3413,7 +3725,7 @@
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="9" t="s">
+      <c r="A161" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B161" s="7" t="s">
@@ -3424,7 +3736,7 @@
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="9" t="s">
+      <c r="A162" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B162" s="7" t="s">
@@ -3435,7 +3747,7 @@
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B163" s="7" t="s">
@@ -3446,10 +3758,10 @@
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="9" t="s">
+      <c r="A164" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C164" s="5" t="s">
@@ -3457,10 +3769,10 @@
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="9" t="s">
+      <c r="A165" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C165" s="5" t="s">
@@ -3468,7 +3780,7 @@
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="9" t="s">
+      <c r="A166" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B166" s="7" t="s">
@@ -3479,7 +3791,7 @@
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="9" t="s">
+      <c r="A167" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B167" s="7" t="s">
@@ -3490,7 +3802,7 @@
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="9" t="s">
+      <c r="A168" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B168" s="7" t="s">
@@ -3501,7 +3813,7 @@
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="9" t="s">
+      <c r="A169" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B169" s="7" t="s">
@@ -3512,7 +3824,7 @@
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="9" t="s">
+      <c r="A170" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B170" s="7" t="s">
@@ -3523,7 +3835,7 @@
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="9" t="s">
+      <c r="A171" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B171" s="7" t="s">
@@ -3534,7 +3846,7 @@
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="9" t="s">
+      <c r="A172" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B172" s="7" t="s">
@@ -3545,7 +3857,7 @@
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="9" t="s">
+      <c r="A173" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B173" s="7" t="s">
@@ -3556,7 +3868,7 @@
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="9" t="s">
+      <c r="A174" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B174" s="7" t="s">
@@ -3568,7 +3880,7 @@
     </row>
     <row r="175" ht="15.75" customHeight="1"/>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="B176" s="8"/>
+      <c r="B176" s="9"/>
       <c r="C176" s="5"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
@@ -3957,13 +4269,13 @@
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="9"/>
-      <c r="B212" s="8"/>
+      <c r="A212" s="10"/>
+      <c r="B212" s="9"/>
       <c r="C212" s="5"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="9"/>
-      <c r="B213" s="8"/>
+      <c r="A213" s="10"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="5"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
@@ -4036,7 +4348,7 @@
       <c r="A220" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="11" t="s">
         <v>215</v>
       </c>
       <c r="C220" s="5" t="s">
@@ -4209,11 +4521,11 @@
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="B236" s="8"/>
+      <c r="B236" s="9"/>
       <c r="C236" s="5"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="B237" s="8"/>
+      <c r="B237" s="9"/>
       <c r="C237" s="5"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
@@ -4602,11 +4914,11 @@
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="B273" s="8"/>
+      <c r="B273" s="9"/>
       <c r="C273" s="5"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="B274" s="8"/>
+      <c r="B274" s="9"/>
       <c r="C274" s="5"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
@@ -4819,11 +5131,11 @@
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="B294" s="8"/>
+      <c r="B294" s="9"/>
       <c r="C294" s="5"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="B295" s="8"/>
+      <c r="B295" s="9"/>
       <c r="C295" s="5"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
@@ -4973,7 +5285,7 @@
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B309" s="11" t="s">
         <v>300</v>
       </c>
       <c r="C309" s="5" t="s">
@@ -5245,15 +5557,15 @@
       </c>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="B334" s="8"/>
+      <c r="B334" s="9"/>
       <c r="C334" s="5"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="B335" s="8"/>
+      <c r="B335" s="9"/>
       <c r="C335" s="5"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="9" t="s">
+      <c r="A336" s="10" t="s">
         <v>325</v>
       </c>
       <c r="B336" s="7" t="s">
@@ -5264,7 +5576,7 @@
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="9" t="s">
+      <c r="A337" s="10" t="s">
         <v>325</v>
       </c>
       <c r="B337" s="7" t="s">
@@ -5275,7 +5587,7 @@
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="9" t="s">
+      <c r="A338" s="10" t="s">
         <v>325</v>
       </c>
       <c r="B338" s="7" t="s">
@@ -5286,7 +5598,7 @@
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="9" t="s">
+      <c r="A339" s="10" t="s">
         <v>325</v>
       </c>
       <c r="B339" s="7" t="s">
@@ -5297,7 +5609,7 @@
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="9" t="s">
+      <c r="A340" s="10" t="s">
         <v>325</v>
       </c>
       <c r="B340" s="7" t="s">
@@ -5308,7 +5620,7 @@
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="9" t="s">
+      <c r="A341" s="10" t="s">
         <v>325</v>
       </c>
       <c r="B341" s="7" t="s">
@@ -5319,7 +5631,7 @@
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="9" t="s">
+      <c r="A342" s="10" t="s">
         <v>325</v>
       </c>
       <c r="B342" s="7" t="s">
@@ -5330,7 +5642,7 @@
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="9" t="s">
+      <c r="A343" s="10" t="s">
         <v>325</v>
       </c>
       <c r="B343" s="7" t="s">
@@ -5341,10 +5653,10 @@
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="9" t="s">
+      <c r="A344" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="B344" s="11" t="s">
         <v>334</v>
       </c>
       <c r="C344" s="5" t="s">
@@ -5352,7 +5664,7 @@
       </c>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="9" t="s">
+      <c r="A345" s="10" t="s">
         <v>325</v>
       </c>
       <c r="B345" s="7" t="s">
@@ -5363,7 +5675,7 @@
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="9" t="s">
+      <c r="A346" s="10" t="s">
         <v>325</v>
       </c>
       <c r="B346" s="7" t="s">
@@ -5374,7 +5686,7 @@
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="9" t="s">
+      <c r="A347" s="10" t="s">
         <v>325</v>
       </c>
       <c r="B347" s="7" t="s">
@@ -5385,7 +5697,7 @@
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="9" t="s">
+      <c r="A348" s="10" t="s">
         <v>325</v>
       </c>
       <c r="B348" s="7" t="s">
@@ -5396,7 +5708,7 @@
       </c>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="9" t="s">
+      <c r="A349" s="10" t="s">
         <v>325</v>
       </c>
       <c r="B349" s="7" t="s">
@@ -5407,7 +5719,7 @@
       </c>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="9" t="s">
+      <c r="A350" s="10" t="s">
         <v>325</v>
       </c>
       <c r="B350" s="7" t="s">
@@ -5418,7 +5730,7 @@
       </c>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="9" t="s">
+      <c r="A351" s="10" t="s">
         <v>325</v>
       </c>
       <c r="B351" s="7" t="s">
@@ -5429,7 +5741,7 @@
       </c>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="9" t="s">
+      <c r="A352" s="10" t="s">
         <v>325</v>
       </c>
       <c r="B352" s="7" t="s">
@@ -5440,7 +5752,7 @@
       </c>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="9" t="s">
+      <c r="A353" s="10" t="s">
         <v>325</v>
       </c>
       <c r="B353" s="7" t="s">
@@ -5451,15 +5763,15 @@
       </c>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="B354" s="8"/>
+      <c r="B354" s="9"/>
       <c r="C354" s="5"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="B355" s="8"/>
+      <c r="B355" s="9"/>
       <c r="C355" s="5"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="9" t="s">
+      <c r="A356" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B356" s="7" t="s">
@@ -5470,7 +5782,7 @@
       </c>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="9" t="s">
+      <c r="A357" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B357" s="7" t="s">
@@ -5481,7 +5793,7 @@
       </c>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="9" t="s">
+      <c r="A358" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B358" s="7" t="s">
@@ -5492,7 +5804,7 @@
       </c>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="9" t="s">
+      <c r="A359" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B359" s="7" t="s">
@@ -5503,7 +5815,7 @@
       </c>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="9" t="s">
+      <c r="A360" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B360" s="7" t="s">
@@ -5514,7 +5826,7 @@
       </c>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="9" t="s">
+      <c r="A361" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B361" s="7" t="s">
@@ -5525,7 +5837,7 @@
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="9" t="s">
+      <c r="A362" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B362" s="7" t="s">
@@ -5536,7 +5848,7 @@
       </c>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="9" t="s">
+      <c r="A363" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B363" s="7" t="s">
@@ -5547,7 +5859,7 @@
       </c>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="9" t="s">
+      <c r="A364" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B364" s="7" t="s">
@@ -5558,7 +5870,7 @@
       </c>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="9" t="s">
+      <c r="A365" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B365" s="7" t="s">
@@ -5569,7 +5881,7 @@
       </c>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="9" t="s">
+      <c r="A366" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B366" s="7" t="s">
@@ -5580,7 +5892,7 @@
       </c>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="9" t="s">
+      <c r="A367" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B367" s="7" t="s">
@@ -5591,7 +5903,7 @@
       </c>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="9" t="s">
+      <c r="A368" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B368" s="7" t="s">
@@ -5602,7 +5914,7 @@
       </c>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="9" t="s">
+      <c r="A369" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B369" s="7" t="s">
@@ -5613,7 +5925,7 @@
       </c>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="9" t="s">
+      <c r="A370" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B370" s="7" t="s">
@@ -5624,7 +5936,7 @@
       </c>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="9" t="s">
+      <c r="A371" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B371" s="7" t="s">
@@ -5635,7 +5947,7 @@
       </c>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="9" t="s">
+      <c r="A372" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B372" s="7" t="s">
@@ -5646,7 +5958,7 @@
       </c>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="9" t="s">
+      <c r="A373" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B373" s="7" t="s">
@@ -5657,7 +5969,7 @@
       </c>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="9" t="s">
+      <c r="A374" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B374" s="7" t="s">
@@ -5668,7 +5980,7 @@
       </c>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="9" t="s">
+      <c r="A375" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B375" s="7" t="s">
@@ -5679,7 +5991,7 @@
       </c>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="9" t="s">
+      <c r="A376" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B376" s="7" t="s">
@@ -5690,7 +6002,7 @@
       </c>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="9" t="s">
+      <c r="A377" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B377" s="7" t="s">
@@ -5701,7 +6013,7 @@
       </c>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="9" t="s">
+      <c r="A378" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B378" s="7" t="s">
@@ -5712,7 +6024,7 @@
       </c>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="9" t="s">
+      <c r="A379" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B379" s="7" t="s">
@@ -5723,7 +6035,7 @@
       </c>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="9" t="s">
+      <c r="A380" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B380" s="7" t="s">
@@ -5734,7 +6046,7 @@
       </c>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="9" t="s">
+      <c r="A381" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B381" s="7" t="s">
@@ -5745,7 +6057,7 @@
       </c>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="9" t="s">
+      <c r="A382" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B382" s="7" t="s">
@@ -5756,7 +6068,7 @@
       </c>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="9" t="s">
+      <c r="A383" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B383" s="7" t="s">
@@ -5767,7 +6079,7 @@
       </c>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="9" t="s">
+      <c r="A384" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B384" s="7" t="s">
@@ -5778,7 +6090,7 @@
       </c>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="9" t="s">
+      <c r="A385" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B385" s="7" t="s">
@@ -5789,7 +6101,7 @@
       </c>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="9" t="s">
+      <c r="A386" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B386" s="7" t="s">
@@ -5800,7 +6112,7 @@
       </c>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="9" t="s">
+      <c r="A387" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B387" s="7" t="s">
@@ -5811,7 +6123,7 @@
       </c>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="9" t="s">
+      <c r="A388" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B388" s="7" t="s">
@@ -5822,7 +6134,7 @@
       </c>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="9" t="s">
+      <c r="A389" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B389" s="7" t="s">
@@ -5833,7 +6145,7 @@
       </c>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="9" t="s">
+      <c r="A390" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B390" s="7" t="s">
@@ -5844,7 +6156,7 @@
       </c>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="9" t="s">
+      <c r="A391" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B391" s="7" t="s">
@@ -5855,7 +6167,7 @@
       </c>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="9" t="s">
+      <c r="A392" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B392" s="7" t="s">
@@ -5866,7 +6178,7 @@
       </c>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="9" t="s">
+      <c r="A393" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B393" s="7" t="s">
@@ -5877,7 +6189,7 @@
       </c>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="9" t="s">
+      <c r="A394" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B394" s="7" t="s">
@@ -5888,7 +6200,7 @@
       </c>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="9" t="s">
+      <c r="A395" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B395" s="7" t="s">
@@ -5899,7 +6211,7 @@
       </c>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="9" t="s">
+      <c r="A396" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B396" s="7" t="s">
@@ -5910,7 +6222,7 @@
       </c>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="9" t="s">
+      <c r="A397" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B397" s="7" t="s">
@@ -5921,7 +6233,7 @@
       </c>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="9" t="s">
+      <c r="A398" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B398" s="7" t="s">
@@ -5932,7 +6244,7 @@
       </c>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="9" t="s">
+      <c r="A399" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B399" s="7" t="s">
@@ -5943,15 +6255,15 @@
       </c>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="B400" s="8"/>
+      <c r="B400" s="9"/>
       <c r="C400" s="5"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="B401" s="8"/>
+      <c r="B401" s="9"/>
       <c r="C401" s="5"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="9" t="s">
+      <c r="A402" s="10" t="s">
         <v>388</v>
       </c>
       <c r="B402" s="7" t="s">
@@ -5962,7 +6274,7 @@
       </c>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="9" t="s">
+      <c r="A403" s="10" t="s">
         <v>388</v>
       </c>
       <c r="B403" s="7" t="s">
@@ -5973,7 +6285,7 @@
       </c>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="9" t="s">
+      <c r="A404" s="10" t="s">
         <v>388</v>
       </c>
       <c r="B404" s="7" t="s">
@@ -5984,7 +6296,7 @@
       </c>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="9" t="s">
+      <c r="A405" s="10" t="s">
         <v>388</v>
       </c>
       <c r="B405" s="7" t="s">
@@ -5995,7 +6307,7 @@
       </c>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="9" t="s">
+      <c r="A406" s="10" t="s">
         <v>388</v>
       </c>
       <c r="B406" s="7" t="s">
@@ -6006,7 +6318,7 @@
       </c>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="9" t="s">
+      <c r="A407" s="10" t="s">
         <v>388</v>
       </c>
       <c r="B407" s="7" t="s">
@@ -6017,11 +6329,11 @@
       </c>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="B408" s="8"/>
+      <c r="B408" s="9"/>
       <c r="C408" s="5"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="B409" s="8"/>
+      <c r="B409" s="9"/>
       <c r="C409" s="5"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
@@ -6685,12 +6997,12 @@
       </c>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="B470" s="8"/>
+      <c r="B470" s="9"/>
       <c r="C470" s="5"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="9"/>
-      <c r="B471" s="8"/>
+      <c r="A471" s="10"/>
+      <c r="B471" s="9"/>
       <c r="C471" s="5"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
@@ -7337,443 +7649,443 @@
     <hyperlink r:id="rId11" ref="B15"/>
     <hyperlink r:id="rId12" ref="B16"/>
     <hyperlink r:id="rId13" ref="B17"/>
-    <hyperlink r:id="rId14" ref="B18"/>
-    <hyperlink r:id="rId15" ref="B19"/>
-    <hyperlink r:id="rId16" ref="B20"/>
-    <hyperlink r:id="rId17" ref="B21"/>
-    <hyperlink r:id="rId18" ref="B22"/>
-    <hyperlink r:id="rId19" ref="B23"/>
-    <hyperlink r:id="rId20" ref="B24"/>
-    <hyperlink r:id="rId21" ref="B25"/>
-    <hyperlink r:id="rId22" ref="B26"/>
-    <hyperlink r:id="rId23" ref="B27"/>
-    <hyperlink r:id="rId24" ref="B28"/>
-    <hyperlink r:id="rId25" ref="B29"/>
-    <hyperlink r:id="rId26" ref="B30"/>
-    <hyperlink r:id="rId27" ref="B31"/>
-    <hyperlink r:id="rId28" ref="B32"/>
-    <hyperlink r:id="rId29" ref="B33"/>
-    <hyperlink r:id="rId30" ref="B34"/>
-    <hyperlink r:id="rId31" ref="B35"/>
-    <hyperlink r:id="rId32" ref="B36"/>
-    <hyperlink r:id="rId33" ref="B37"/>
-    <hyperlink r:id="rId34" ref="B38"/>
-    <hyperlink r:id="rId35" ref="B39"/>
-    <hyperlink r:id="rId36" ref="B40"/>
-    <hyperlink r:id="rId37" ref="B41"/>
-    <hyperlink r:id="rId38" ref="B44"/>
-    <hyperlink r:id="rId39" ref="B45"/>
-    <hyperlink r:id="rId40" ref="B46"/>
-    <hyperlink r:id="rId41" ref="B47"/>
-    <hyperlink r:id="rId42" ref="B48"/>
-    <hyperlink r:id="rId43" ref="B49"/>
-    <hyperlink r:id="rId44" ref="B50"/>
-    <hyperlink r:id="rId45" ref="B51"/>
-    <hyperlink r:id="rId46" ref="B52"/>
-    <hyperlink r:id="rId47" ref="B53"/>
-    <hyperlink r:id="rId48" ref="B56"/>
-    <hyperlink r:id="rId49" ref="B57"/>
-    <hyperlink r:id="rId50" ref="B58"/>
-    <hyperlink r:id="rId51" ref="B60"/>
-    <hyperlink r:id="rId52" ref="B61"/>
-    <hyperlink r:id="rId53" ref="B62"/>
-    <hyperlink r:id="rId54" ref="B63"/>
-    <hyperlink r:id="rId55" ref="B64"/>
-    <hyperlink r:id="rId56" ref="B65"/>
-    <hyperlink r:id="rId57" ref="B66"/>
-    <hyperlink r:id="rId58" ref="B67"/>
-    <hyperlink r:id="rId59" ref="B68"/>
-    <hyperlink r:id="rId60" ref="B69"/>
-    <hyperlink r:id="rId61" ref="B70"/>
-    <hyperlink r:id="rId62" ref="B71"/>
-    <hyperlink r:id="rId63" ref="B72"/>
-    <hyperlink r:id="rId64" ref="B73"/>
-    <hyperlink r:id="rId65" ref="B74"/>
-    <hyperlink r:id="rId66" ref="B75"/>
-    <hyperlink r:id="rId67" ref="B76"/>
-    <hyperlink r:id="rId68" ref="B77"/>
-    <hyperlink r:id="rId69" ref="B78"/>
-    <hyperlink r:id="rId70" ref="B79"/>
-    <hyperlink r:id="rId71" ref="B80"/>
-    <hyperlink r:id="rId72" ref="B81"/>
-    <hyperlink r:id="rId73" ref="B82"/>
-    <hyperlink r:id="rId74" ref="B83"/>
-    <hyperlink r:id="rId75" ref="B84"/>
-    <hyperlink r:id="rId76" ref="B85"/>
-    <hyperlink r:id="rId77" ref="B86"/>
-    <hyperlink r:id="rId78" ref="B87"/>
-    <hyperlink r:id="rId79" ref="B88"/>
-    <hyperlink r:id="rId80" ref="B89"/>
-    <hyperlink r:id="rId81" ref="B90"/>
-    <hyperlink r:id="rId82" ref="B91"/>
-    <hyperlink r:id="rId83" ref="B92"/>
-    <hyperlink r:id="rId84" ref="B93"/>
-    <hyperlink r:id="rId85" ref="B94"/>
-    <hyperlink r:id="rId86" ref="B95"/>
-    <hyperlink r:id="rId87" ref="B96"/>
-    <hyperlink r:id="rId88" ref="B97"/>
-    <hyperlink r:id="rId89" ref="B98"/>
-    <hyperlink r:id="rId90" ref="B101"/>
-    <hyperlink r:id="rId91" ref="B102"/>
-    <hyperlink r:id="rId92" ref="B103"/>
-    <hyperlink r:id="rId93" ref="B104"/>
-    <hyperlink r:id="rId94" ref="B105"/>
-    <hyperlink r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." ref="B106"/>
-    <hyperlink r:id="rId96" ref="B107"/>
-    <hyperlink r:id="rId97" ref="B108"/>
-    <hyperlink r:id="rId98" ref="B109"/>
-    <hyperlink r:id="rId99" ref="B110"/>
-    <hyperlink r:id="rId100" ref="B111"/>
-    <hyperlink r:id="rId101" ref="B112"/>
-    <hyperlink r:id="rId102" ref="B113"/>
-    <hyperlink r:id="rId103" ref="B114"/>
-    <hyperlink r:id="rId104" ref="B115"/>
-    <hyperlink r:id="rId105" ref="B116"/>
-    <hyperlink r:id="rId106" ref="B117"/>
-    <hyperlink r:id="rId107" ref="B118"/>
-    <hyperlink r:id="rId108" ref="B119"/>
-    <hyperlink r:id="rId109" ref="B120"/>
-    <hyperlink r:id="rId110" ref="B121"/>
-    <hyperlink r:id="rId111" ref="B122"/>
-    <hyperlink r:id="rId112" ref="B123"/>
-    <hyperlink r:id="rId113" ref="B124"/>
-    <hyperlink r:id="rId114" ref="B125"/>
-    <hyperlink r:id="rId115" ref="B126"/>
-    <hyperlink r:id="rId116" ref="B127"/>
-    <hyperlink r:id="rId117" ref="B128"/>
-    <hyperlink r:id="rId118" ref="B129"/>
-    <hyperlink r:id="rId119" ref="B130"/>
-    <hyperlink r:id="rId120" ref="B131"/>
-    <hyperlink r:id="rId121" ref="B132"/>
-    <hyperlink r:id="rId122" ref="B133"/>
-    <hyperlink r:id="rId123" ref="B134"/>
-    <hyperlink r:id="rId124" ref="B135"/>
-    <hyperlink r:id="rId125" ref="B136"/>
-    <hyperlink r:id="rId126" ref="B139"/>
-    <hyperlink r:id="rId127" ref="B140"/>
-    <hyperlink r:id="rId128" ref="B141"/>
-    <hyperlink r:id="rId129" ref="B142"/>
-    <hyperlink r:id="rId130" ref="B143"/>
-    <hyperlink r:id="rId131" ref="B144"/>
-    <hyperlink r:id="rId132" ref="B145"/>
-    <hyperlink r:id="rId133" ref="B146"/>
-    <hyperlink r:id="rId134" ref="B147"/>
-    <hyperlink r:id="rId135" ref="B148"/>
-    <hyperlink r:id="rId136" ref="B149"/>
-    <hyperlink r:id="rId137" ref="B150"/>
-    <hyperlink r:id="rId138" ref="B151"/>
-    <hyperlink r:id="rId139" ref="B152"/>
-    <hyperlink r:id="rId140" ref="B153"/>
-    <hyperlink r:id="rId141" ref="B154"/>
-    <hyperlink r:id="rId142" ref="B155"/>
-    <hyperlink r:id="rId143" ref="B156"/>
-    <hyperlink r:id="rId144" ref="B157"/>
-    <hyperlink r:id="rId145" ref="B158"/>
-    <hyperlink r:id="rId146" ref="B159"/>
-    <hyperlink r:id="rId147" ref="B160"/>
-    <hyperlink r:id="rId148" ref="B161"/>
-    <hyperlink r:id="rId149" ref="B162"/>
-    <hyperlink r:id="rId150" ref="B163"/>
-    <hyperlink r:id="rId151" ref="B166"/>
-    <hyperlink r:id="rId152" ref="B167"/>
-    <hyperlink r:id="rId153" ref="B168"/>
-    <hyperlink r:id="rId154" ref="B169"/>
-    <hyperlink r:id="rId155" ref="B170"/>
-    <hyperlink r:id="rId156" ref="B171"/>
-    <hyperlink r:id="rId157" ref="B172"/>
-    <hyperlink r:id="rId158" ref="B173"/>
-    <hyperlink r:id="rId159" ref="B174"/>
-    <hyperlink r:id="rId160" ref="B177"/>
-    <hyperlink r:id="rId161" ref="B178"/>
-    <hyperlink r:id="rId162" ref="B179"/>
-    <hyperlink r:id="rId163" ref="B180"/>
-    <hyperlink r:id="rId164" ref="B181"/>
-    <hyperlink r:id="rId165" ref="B182"/>
-    <hyperlink r:id="rId166" ref="B183"/>
-    <hyperlink r:id="rId167" ref="B184"/>
-    <hyperlink r:id="rId168" ref="B185"/>
-    <hyperlink r:id="rId169" ref="B186"/>
-    <hyperlink r:id="rId170" ref="B187"/>
-    <hyperlink r:id="rId171" ref="B188"/>
-    <hyperlink r:id="rId172" ref="B189"/>
-    <hyperlink r:id="rId173" ref="B190"/>
-    <hyperlink r:id="rId174" ref="B191"/>
-    <hyperlink r:id="rId175" ref="B192"/>
-    <hyperlink r:id="rId176" ref="B193"/>
-    <hyperlink r:id="rId177" ref="B194"/>
-    <hyperlink r:id="rId178" ref="B195"/>
-    <hyperlink r:id="rId179" ref="B196"/>
-    <hyperlink r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." ref="B197"/>
-    <hyperlink r:id="rId181" ref="B198"/>
-    <hyperlink r:id="rId182" ref="B199"/>
-    <hyperlink r:id="rId183" ref="B200"/>
-    <hyperlink r:id="rId184" ref="B201"/>
-    <hyperlink r:id="rId185" ref="B202"/>
-    <hyperlink r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." ref="B203"/>
-    <hyperlink r:id="rId187" ref="B204"/>
-    <hyperlink r:id="rId188" ref="B205"/>
-    <hyperlink r:id="rId189" ref="B206"/>
-    <hyperlink r:id="rId190" ref="B207"/>
-    <hyperlink r:id="rId191" ref="B208"/>
-    <hyperlink r:id="rId192" ref="B209"/>
-    <hyperlink r:id="rId193" ref="B210"/>
-    <hyperlink r:id="rId194" ref="B211"/>
-    <hyperlink r:id="rId195" ref="B214"/>
-    <hyperlink r:id="rId196" ref="B215"/>
-    <hyperlink r:id="rId197" ref="B216"/>
-    <hyperlink r:id="rId198" ref="B217"/>
-    <hyperlink r:id="rId199" ref="B218"/>
-    <hyperlink r:id="rId200" ref="B219"/>
-    <hyperlink r:id="rId201" ref="B220"/>
-    <hyperlink r:id="rId202" ref="B221"/>
-    <hyperlink r:id="rId203" ref="B222"/>
-    <hyperlink r:id="rId204" ref="B223"/>
-    <hyperlink r:id="rId205" ref="B224"/>
-    <hyperlink r:id="rId206" ref="B225"/>
-    <hyperlink r:id="rId207" ref="B226"/>
-    <hyperlink r:id="rId208" ref="B227"/>
-    <hyperlink r:id="rId209" ref="B228"/>
-    <hyperlink r:id="rId210" ref="B229"/>
-    <hyperlink r:id="rId211" ref="B230"/>
-    <hyperlink r:id="rId212" ref="B231"/>
-    <hyperlink r:id="rId213" ref="B232"/>
-    <hyperlink r:id="rId214" ref="B233"/>
-    <hyperlink r:id="rId215" ref="B234"/>
-    <hyperlink r:id="rId216" ref="B235"/>
-    <hyperlink r:id="rId217" ref="B238"/>
-    <hyperlink r:id="rId218" ref="B239"/>
-    <hyperlink r:id="rId219" ref="B240"/>
-    <hyperlink r:id="rId220" ref="B241"/>
-    <hyperlink r:id="rId221" ref="B242"/>
-    <hyperlink r:id="rId222" ref="B243"/>
-    <hyperlink r:id="rId223" ref="B244"/>
-    <hyperlink r:id="rId224" ref="B245"/>
-    <hyperlink r:id="rId225" ref="B246"/>
-    <hyperlink r:id="rId226" ref="B247"/>
-    <hyperlink r:id="rId227" ref="B248"/>
-    <hyperlink r:id="rId228" ref="B249"/>
-    <hyperlink r:id="rId229" ref="B250"/>
-    <hyperlink r:id="rId230" ref="B251"/>
-    <hyperlink r:id="rId231" ref="B252"/>
-    <hyperlink r:id="rId232" ref="B253"/>
-    <hyperlink r:id="rId233" ref="B254"/>
-    <hyperlink r:id="rId234" ref="B255"/>
-    <hyperlink r:id="rId235" ref="B256"/>
-    <hyperlink r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." ref="B257"/>
-    <hyperlink r:id="rId237" ref="B258"/>
-    <hyperlink r:id="rId238" ref="B259"/>
-    <hyperlink r:id="rId239" ref="B260"/>
-    <hyperlink r:id="rId240" ref="B261"/>
-    <hyperlink r:id="rId241" ref="B262"/>
-    <hyperlink r:id="rId242" ref="B263"/>
-    <hyperlink r:id="rId243" ref="B264"/>
-    <hyperlink r:id="rId244" ref="B265"/>
-    <hyperlink r:id="rId245" ref="B266"/>
-    <hyperlink r:id="rId246" ref="B267"/>
-    <hyperlink r:id="rId247" ref="B268"/>
-    <hyperlink r:id="rId248" ref="B269"/>
-    <hyperlink r:id="rId249" ref="B270"/>
-    <hyperlink r:id="rId250" ref="B271"/>
-    <hyperlink r:id="rId251" ref="B272"/>
-    <hyperlink r:id="rId252" ref="B275"/>
-    <hyperlink r:id="rId253" ref="B276"/>
-    <hyperlink r:id="rId254" ref="B277"/>
-    <hyperlink r:id="rId255" ref="B278"/>
-    <hyperlink r:id="rId256" ref="B279"/>
-    <hyperlink r:id="rId257" ref="B280"/>
-    <hyperlink r:id="rId258" ref="B281"/>
-    <hyperlink r:id="rId259" ref="B282"/>
-    <hyperlink r:id="rId260" ref="B283"/>
-    <hyperlink r:id="rId261" ref="B284"/>
-    <hyperlink r:id="rId262" ref="B285"/>
-    <hyperlink r:id="rId263" ref="B286"/>
-    <hyperlink r:id="rId264" ref="B287"/>
-    <hyperlink r:id="rId265" ref="B288"/>
-    <hyperlink r:id="rId266" ref="B289"/>
-    <hyperlink r:id="rId267" ref="B290"/>
-    <hyperlink r:id="rId268" ref="B291"/>
-    <hyperlink r:id="rId269" ref="B292"/>
-    <hyperlink r:id="rId270" ref="B293"/>
-    <hyperlink r:id="rId271" ref="B296"/>
-    <hyperlink r:id="rId272" ref="B297"/>
-    <hyperlink r:id="rId273" ref="B298"/>
-    <hyperlink r:id="rId274" ref="B299"/>
-    <hyperlink r:id="rId275" ref="B300"/>
-    <hyperlink r:id="rId276" ref="B301"/>
-    <hyperlink r:id="rId277" ref="B302"/>
-    <hyperlink r:id="rId278" ref="B303"/>
-    <hyperlink r:id="rId279" ref="B304"/>
-    <hyperlink r:id="rId280" ref="B305"/>
-    <hyperlink r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." ref="B306"/>
-    <hyperlink r:id="rId282" ref="B307"/>
-    <hyperlink r:id="rId283" ref="B308"/>
-    <hyperlink r:id="rId284" ref="B309"/>
-    <hyperlink r:id="rId285" ref="B310"/>
-    <hyperlink r:id="rId286" ref="B311"/>
-    <hyperlink r:id="rId287" ref="B312"/>
-    <hyperlink r:id="rId288" ref="B313"/>
-    <hyperlink r:id="rId289" ref="B314"/>
-    <hyperlink r:id="rId290" ref="B315"/>
-    <hyperlink r:id="rId291" ref="B316"/>
-    <hyperlink r:id="rId292" ref="B317"/>
-    <hyperlink r:id="rId293" ref="B318"/>
-    <hyperlink r:id="rId294" ref="B319"/>
-    <hyperlink r:id="rId295" ref="B320"/>
-    <hyperlink r:id="rId296" ref="B321"/>
-    <hyperlink r:id="rId297" ref="B322"/>
-    <hyperlink r:id="rId298" ref="B323"/>
-    <hyperlink r:id="rId299" ref="B324"/>
-    <hyperlink r:id="rId300" ref="B325"/>
-    <hyperlink r:id="rId301" ref="B326"/>
-    <hyperlink r:id="rId302" ref="B327"/>
-    <hyperlink r:id="rId303" ref="B328"/>
-    <hyperlink r:id="rId304" ref="B329"/>
-    <hyperlink r:id="rId305" ref="B330"/>
-    <hyperlink r:id="rId306" ref="B331"/>
-    <hyperlink r:id="rId307" ref="B332"/>
-    <hyperlink r:id="rId308" ref="B333"/>
-    <hyperlink r:id="rId309" ref="B336"/>
-    <hyperlink r:id="rId310" ref="B337"/>
-    <hyperlink r:id="rId311" ref="B338"/>
-    <hyperlink r:id="rId312" ref="B339"/>
-    <hyperlink r:id="rId313" ref="B340"/>
-    <hyperlink r:id="rId314" ref="B341"/>
-    <hyperlink r:id="rId315" ref="B342"/>
-    <hyperlink r:id="rId316" ref="B343"/>
-    <hyperlink r:id="rId317" ref="B344"/>
-    <hyperlink r:id="rId318" ref="B345"/>
-    <hyperlink r:id="rId319" ref="B346"/>
-    <hyperlink r:id="rId320" ref="B347"/>
-    <hyperlink r:id="rId321" ref="B348"/>
-    <hyperlink r:id="rId322" ref="B349"/>
-    <hyperlink r:id="rId323" ref="B350"/>
-    <hyperlink r:id="rId324" ref="B351"/>
-    <hyperlink r:id="rId325" ref="B352"/>
-    <hyperlink r:id="rId326" ref="B353"/>
-    <hyperlink r:id="rId327" ref="B356"/>
-    <hyperlink r:id="rId328" ref="B357"/>
-    <hyperlink r:id="rId329" ref="B358"/>
-    <hyperlink r:id="rId330" ref="B359"/>
-    <hyperlink r:id="rId331" ref="B360"/>
-    <hyperlink r:id="rId332" ref="B361"/>
-    <hyperlink r:id="rId333" ref="B362"/>
-    <hyperlink r:id="rId334" ref="B363"/>
-    <hyperlink r:id="rId335" ref="B364"/>
-    <hyperlink r:id="rId336" ref="B365"/>
-    <hyperlink r:id="rId337" ref="B366"/>
-    <hyperlink r:id="rId338" ref="B367"/>
-    <hyperlink r:id="rId339" ref="B368"/>
-    <hyperlink r:id="rId340" ref="B369"/>
-    <hyperlink r:id="rId341" ref="B370"/>
-    <hyperlink r:id="rId342" ref="B371"/>
-    <hyperlink r:id="rId343" ref="B372"/>
-    <hyperlink r:id="rId344" ref="B373"/>
-    <hyperlink r:id="rId345" ref="B374"/>
-    <hyperlink r:id="rId346" ref="B375"/>
-    <hyperlink r:id="rId347" ref="B376"/>
-    <hyperlink r:id="rId348" ref="B377"/>
-    <hyperlink r:id="rId349" ref="B378"/>
-    <hyperlink r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." ref="B379"/>
-    <hyperlink r:id="rId351" ref="B380"/>
-    <hyperlink r:id="rId352" ref="B381"/>
-    <hyperlink r:id="rId353" ref="B382"/>
-    <hyperlink r:id="rId354" ref="B383"/>
-    <hyperlink r:id="rId355" ref="B384"/>
-    <hyperlink r:id="rId356" ref="B385"/>
-    <hyperlink r:id="rId357" ref="B386"/>
-    <hyperlink r:id="rId358" ref="B387"/>
-    <hyperlink r:id="rId359" ref="B388"/>
-    <hyperlink r:id="rId360" ref="B389"/>
-    <hyperlink r:id="rId361" ref="B390"/>
-    <hyperlink r:id="rId362" ref="B391"/>
-    <hyperlink r:id="rId363" ref="B392"/>
-    <hyperlink r:id="rId364" ref="B393"/>
-    <hyperlink r:id="rId365" ref="B394"/>
-    <hyperlink r:id="rId366" ref="B395"/>
-    <hyperlink r:id="rId367" ref="B396"/>
-    <hyperlink r:id="rId368" ref="B397"/>
-    <hyperlink r:id="rId369" ref="B398"/>
-    <hyperlink r:id="rId370" ref="B399"/>
-    <hyperlink r:id="rId371" ref="B402"/>
-    <hyperlink r:id="rId372" ref="B403"/>
-    <hyperlink r:id="rId373" ref="B404"/>
-    <hyperlink r:id="rId374" ref="B405"/>
-    <hyperlink r:id="rId375" ref="B406"/>
-    <hyperlink r:id="rId376" ref="B407"/>
-    <hyperlink r:id="rId377" ref="B410"/>
-    <hyperlink r:id="rId378" ref="B411"/>
-    <hyperlink r:id="rId379" ref="B412"/>
-    <hyperlink r:id="rId380" ref="B413"/>
-    <hyperlink r:id="rId381" ref="B414"/>
-    <hyperlink r:id="rId382" ref="B415"/>
-    <hyperlink r:id="rId383" ref="B416"/>
-    <hyperlink r:id="rId384" ref="B417"/>
-    <hyperlink r:id="rId385" ref="B418"/>
-    <hyperlink r:id="rId386" ref="B419"/>
-    <hyperlink r:id="rId387" ref="B420"/>
-    <hyperlink r:id="rId388" ref="B421"/>
-    <hyperlink r:id="rId389" ref="B422"/>
-    <hyperlink r:id="rId390" ref="B423"/>
-    <hyperlink r:id="rId391" ref="B424"/>
-    <hyperlink r:id="rId392" ref="B425"/>
-    <hyperlink r:id="rId393" ref="B426"/>
-    <hyperlink r:id="rId394" ref="B427"/>
-    <hyperlink r:id="rId395" ref="B428"/>
-    <hyperlink r:id="rId396" ref="B429"/>
-    <hyperlink r:id="rId397" ref="B430"/>
-    <hyperlink r:id="rId398" ref="B431"/>
-    <hyperlink r:id="rId399" ref="B432"/>
-    <hyperlink r:id="rId400" ref="B433"/>
-    <hyperlink r:id="rId401" ref="B434"/>
-    <hyperlink r:id="rId402" ref="B435"/>
-    <hyperlink r:id="rId403" ref="B436"/>
-    <hyperlink r:id="rId404" ref="B437"/>
-    <hyperlink r:id="rId405" ref="B438"/>
-    <hyperlink r:id="rId406" ref="B439"/>
-    <hyperlink r:id="rId407" ref="B440"/>
-    <hyperlink r:id="rId408" ref="B441"/>
-    <hyperlink r:id="rId409" ref="B442"/>
-    <hyperlink r:id="rId410" ref="B443"/>
-    <hyperlink r:id="rId411" ref="B444"/>
-    <hyperlink r:id="rId412" ref="B445"/>
-    <hyperlink r:id="rId413" ref="B446"/>
-    <hyperlink r:id="rId414" ref="B447"/>
-    <hyperlink r:id="rId415" ref="B448"/>
-    <hyperlink r:id="rId416" ref="B449"/>
-    <hyperlink r:id="rId417" ref="B450"/>
-    <hyperlink r:id="rId418" ref="B451"/>
-    <hyperlink r:id="rId419" ref="B452"/>
-    <hyperlink r:id="rId420" ref="B453"/>
-    <hyperlink r:id="rId421" ref="B454"/>
-    <hyperlink r:id="rId422" ref="B455"/>
-    <hyperlink r:id="rId423" ref="B456"/>
-    <hyperlink r:id="rId424" ref="B457"/>
-    <hyperlink r:id="rId425" ref="B458"/>
-    <hyperlink r:id="rId426" ref="B459"/>
-    <hyperlink r:id="rId427" ref="B460"/>
-    <hyperlink r:id="rId428" ref="B461"/>
-    <hyperlink r:id="rId429" ref="B462"/>
-    <hyperlink r:id="rId430" ref="B463"/>
-    <hyperlink r:id="rId431" ref="B464"/>
-    <hyperlink r:id="rId432" ref="B465"/>
-    <hyperlink r:id="rId433" ref="B466"/>
-    <hyperlink r:id="rId434" ref="B467"/>
-    <hyperlink r:id="rId435" ref="B468"/>
-    <hyperlink r:id="rId436" ref="B469"/>
-    <hyperlink r:id="rId437" ref="B472"/>
-    <hyperlink r:id="rId438" ref="B473"/>
-    <hyperlink r:id="rId439" ref="B474"/>
-    <hyperlink r:id="rId440" ref="B475"/>
-    <hyperlink r:id="rId441" ref="B476"/>
-    <hyperlink r:id="rId442" ref="B477"/>
-    <hyperlink r:id="rId443" ref="B478"/>
-    <hyperlink r:id="rId444" ref="B479"/>
-    <hyperlink r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." ref="B480"/>
-    <hyperlink r:id="rId446" ref="B481"/>
+    <hyperlink r:id="rId9" ref="B18"/>
+    <hyperlink r:id="rId14" ref="B19"/>
+    <hyperlink r:id="rId15" ref="B20"/>
+    <hyperlink r:id="rId16" ref="B21"/>
+    <hyperlink r:id="rId17" ref="B22"/>
+    <hyperlink r:id="rId18" ref="B23"/>
+    <hyperlink r:id="rId19" ref="B24"/>
+    <hyperlink r:id="rId20" ref="B25"/>
+    <hyperlink r:id="rId21" ref="B26"/>
+    <hyperlink r:id="rId22" ref="B27"/>
+    <hyperlink r:id="rId23" ref="B28"/>
+    <hyperlink r:id="rId24" ref="B29"/>
+    <hyperlink r:id="rId25" ref="B30"/>
+    <hyperlink r:id="rId26" ref="B31"/>
+    <hyperlink r:id="rId27" ref="B32"/>
+    <hyperlink r:id="rId28" ref="B33"/>
+    <hyperlink r:id="rId29" ref="B34"/>
+    <hyperlink r:id="rId30" ref="B35"/>
+    <hyperlink r:id="rId31" ref="B36"/>
+    <hyperlink r:id="rId32" ref="B37"/>
+    <hyperlink r:id="rId33" ref="B38"/>
+    <hyperlink r:id="rId34" ref="B39"/>
+    <hyperlink r:id="rId35" ref="B40"/>
+    <hyperlink r:id="rId36" ref="B41"/>
+    <hyperlink r:id="rId37" ref="B44"/>
+    <hyperlink r:id="rId38" ref="B45"/>
+    <hyperlink r:id="rId39" ref="B46"/>
+    <hyperlink r:id="rId40" ref="B47"/>
+    <hyperlink r:id="rId41" ref="B48"/>
+    <hyperlink r:id="rId42" ref="B49"/>
+    <hyperlink r:id="rId43" ref="B50"/>
+    <hyperlink r:id="rId44" ref="B51"/>
+    <hyperlink r:id="rId45" ref="B52"/>
+    <hyperlink r:id="rId46" ref="B53"/>
+    <hyperlink r:id="rId47" ref="B56"/>
+    <hyperlink r:id="rId48" ref="B57"/>
+    <hyperlink r:id="rId49" ref="B58"/>
+    <hyperlink r:id="rId50" ref="B60"/>
+    <hyperlink r:id="rId51" ref="B61"/>
+    <hyperlink r:id="rId52" ref="B62"/>
+    <hyperlink r:id="rId53" ref="B63"/>
+    <hyperlink r:id="rId54" ref="B64"/>
+    <hyperlink r:id="rId55" ref="B65"/>
+    <hyperlink r:id="rId56" ref="B66"/>
+    <hyperlink r:id="rId57" ref="B67"/>
+    <hyperlink r:id="rId58" ref="B68"/>
+    <hyperlink r:id="rId59" ref="B69"/>
+    <hyperlink r:id="rId60" ref="B70"/>
+    <hyperlink r:id="rId61" ref="B71"/>
+    <hyperlink r:id="rId62" ref="B72"/>
+    <hyperlink r:id="rId63" ref="B73"/>
+    <hyperlink r:id="rId64" ref="B74"/>
+    <hyperlink r:id="rId65" ref="B75"/>
+    <hyperlink r:id="rId66" ref="B76"/>
+    <hyperlink r:id="rId67" ref="B77"/>
+    <hyperlink r:id="rId68" ref="B78"/>
+    <hyperlink r:id="rId69" ref="B79"/>
+    <hyperlink r:id="rId70" ref="B80"/>
+    <hyperlink r:id="rId71" ref="B81"/>
+    <hyperlink r:id="rId72" ref="B82"/>
+    <hyperlink r:id="rId73" ref="B83"/>
+    <hyperlink r:id="rId74" ref="B84"/>
+    <hyperlink r:id="rId75" ref="B85"/>
+    <hyperlink r:id="rId76" ref="B86"/>
+    <hyperlink r:id="rId77" ref="B87"/>
+    <hyperlink r:id="rId78" ref="B88"/>
+    <hyperlink r:id="rId79" ref="B89"/>
+    <hyperlink r:id="rId80" ref="B90"/>
+    <hyperlink r:id="rId81" ref="B91"/>
+    <hyperlink r:id="rId82" ref="B92"/>
+    <hyperlink r:id="rId83" ref="B93"/>
+    <hyperlink r:id="rId84" ref="B94"/>
+    <hyperlink r:id="rId85" ref="B95"/>
+    <hyperlink r:id="rId86" ref="B96"/>
+    <hyperlink r:id="rId87" ref="B97"/>
+    <hyperlink r:id="rId88" ref="B98"/>
+    <hyperlink r:id="rId89" ref="B101"/>
+    <hyperlink r:id="rId90" ref="B102"/>
+    <hyperlink r:id="rId91" ref="B103"/>
+    <hyperlink r:id="rId92" ref="B104"/>
+    <hyperlink r:id="rId93" ref="B105"/>
+    <hyperlink r:id="rId94" ref="B106"/>
+    <hyperlink r:id="rId95" ref="B107"/>
+    <hyperlink r:id="rId96" ref="B108"/>
+    <hyperlink r:id="rId97" ref="B109"/>
+    <hyperlink r:id="rId98" ref="B110"/>
+    <hyperlink r:id="rId99" ref="B111"/>
+    <hyperlink r:id="rId100" ref="B112"/>
+    <hyperlink r:id="rId101" ref="B113"/>
+    <hyperlink r:id="rId13" ref="B114"/>
+    <hyperlink r:id="rId102" ref="B115"/>
+    <hyperlink r:id="rId103" ref="B116"/>
+    <hyperlink r:id="rId104" ref="B117"/>
+    <hyperlink r:id="rId105" ref="B118"/>
+    <hyperlink r:id="rId106" ref="B119"/>
+    <hyperlink r:id="rId107" ref="B120"/>
+    <hyperlink r:id="rId108" ref="B121"/>
+    <hyperlink r:id="rId109" ref="B122"/>
+    <hyperlink r:id="rId110" ref="B123"/>
+    <hyperlink r:id="rId111" ref="B124"/>
+    <hyperlink r:id="rId112" ref="B125"/>
+    <hyperlink r:id="rId113" ref="B126"/>
+    <hyperlink r:id="rId114" ref="B127"/>
+    <hyperlink r:id="rId115" ref="B128"/>
+    <hyperlink r:id="rId116" ref="B129"/>
+    <hyperlink r:id="rId112" ref="B130"/>
+    <hyperlink r:id="rId117" ref="B131"/>
+    <hyperlink r:id="rId118" ref="B132"/>
+    <hyperlink r:id="rId119" ref="B133"/>
+    <hyperlink r:id="rId16" ref="B134"/>
+    <hyperlink r:id="rId120" ref="B135"/>
+    <hyperlink r:id="rId121" ref="B136"/>
+    <hyperlink r:id="rId122" ref="B139"/>
+    <hyperlink r:id="rId123" ref="B140"/>
+    <hyperlink r:id="rId124" ref="B141"/>
+    <hyperlink r:id="rId125" ref="B142"/>
+    <hyperlink r:id="rId126" ref="B143"/>
+    <hyperlink r:id="rId127" ref="B144"/>
+    <hyperlink r:id="rId128" ref="B145"/>
+    <hyperlink r:id="rId129" ref="B146"/>
+    <hyperlink r:id="rId130" ref="B147"/>
+    <hyperlink r:id="rId131" ref="B148"/>
+    <hyperlink r:id="rId132" ref="B149"/>
+    <hyperlink r:id="rId133" ref="B150"/>
+    <hyperlink r:id="rId134" ref="B151"/>
+    <hyperlink r:id="rId135" ref="B152"/>
+    <hyperlink r:id="rId136" ref="B153"/>
+    <hyperlink r:id="rId137" ref="B154"/>
+    <hyperlink r:id="rId138" ref="B155"/>
+    <hyperlink r:id="rId139" ref="B156"/>
+    <hyperlink r:id="rId140" ref="B157"/>
+    <hyperlink r:id="rId141" ref="B158"/>
+    <hyperlink r:id="rId142" ref="B159"/>
+    <hyperlink r:id="rId143" ref="B160"/>
+    <hyperlink r:id="rId144" ref="B161"/>
+    <hyperlink r:id="rId145" ref="B162"/>
+    <hyperlink r:id="rId146" ref="B163"/>
+    <hyperlink r:id="rId147" ref="B166"/>
+    <hyperlink r:id="rId148" ref="B167"/>
+    <hyperlink r:id="rId149" ref="B168"/>
+    <hyperlink r:id="rId150" ref="B169"/>
+    <hyperlink r:id="rId151" ref="B170"/>
+    <hyperlink r:id="rId152" ref="B171"/>
+    <hyperlink r:id="rId153" ref="B172"/>
+    <hyperlink r:id="rId154" ref="B173"/>
+    <hyperlink r:id="rId155" ref="B174"/>
+    <hyperlink r:id="rId156" ref="B177"/>
+    <hyperlink r:id="rId157" ref="B178"/>
+    <hyperlink r:id="rId158" ref="B179"/>
+    <hyperlink r:id="rId159" ref="B180"/>
+    <hyperlink r:id="rId160" ref="B181"/>
+    <hyperlink r:id="rId161" ref="B182"/>
+    <hyperlink r:id="rId162" ref="B183"/>
+    <hyperlink r:id="rId163" ref="B184"/>
+    <hyperlink r:id="rId164" ref="B185"/>
+    <hyperlink r:id="rId165" ref="B186"/>
+    <hyperlink r:id="rId166" ref="B187"/>
+    <hyperlink r:id="rId167" ref="B188"/>
+    <hyperlink r:id="rId168" ref="B189"/>
+    <hyperlink r:id="rId169" ref="B190"/>
+    <hyperlink r:id="rId170" ref="B191"/>
+    <hyperlink r:id="rId171" ref="B192"/>
+    <hyperlink r:id="rId172" ref="B193"/>
+    <hyperlink r:id="rId173" ref="B194"/>
+    <hyperlink r:id="rId174" ref="B195"/>
+    <hyperlink r:id="rId175" ref="B196"/>
+    <hyperlink r:id="rId176" ref="B197"/>
+    <hyperlink r:id="rId177" ref="B198"/>
+    <hyperlink r:id="rId178" ref="B199"/>
+    <hyperlink r:id="rId179" ref="B200"/>
+    <hyperlink r:id="rId180" ref="B201"/>
+    <hyperlink r:id="rId181" ref="B202"/>
+    <hyperlink r:id="rId182" ref="B203"/>
+    <hyperlink r:id="rId183" ref="B204"/>
+    <hyperlink r:id="rId184" ref="B205"/>
+    <hyperlink r:id="rId185" ref="B206"/>
+    <hyperlink r:id="rId186" ref="B207"/>
+    <hyperlink r:id="rId187" ref="B208"/>
+    <hyperlink r:id="rId188" ref="B209"/>
+    <hyperlink r:id="rId189" ref="B210"/>
+    <hyperlink r:id="rId190" ref="B211"/>
+    <hyperlink r:id="rId191" ref="B214"/>
+    <hyperlink r:id="rId192" ref="B215"/>
+    <hyperlink r:id="rId193" ref="B216"/>
+    <hyperlink r:id="rId194" ref="B217"/>
+    <hyperlink r:id="rId195" ref="B218"/>
+    <hyperlink r:id="rId196" ref="B219"/>
+    <hyperlink r:id="rId197" ref="B220"/>
+    <hyperlink r:id="rId198" ref="B221"/>
+    <hyperlink r:id="rId199" ref="B222"/>
+    <hyperlink r:id="rId200" ref="B223"/>
+    <hyperlink r:id="rId201" ref="B224"/>
+    <hyperlink r:id="rId202" ref="B225"/>
+    <hyperlink r:id="rId203" ref="B226"/>
+    <hyperlink r:id="rId204" ref="B227"/>
+    <hyperlink r:id="rId205" ref="B228"/>
+    <hyperlink r:id="rId206" ref="B229"/>
+    <hyperlink r:id="rId207" ref="B230"/>
+    <hyperlink r:id="rId208" ref="B231"/>
+    <hyperlink r:id="rId209" ref="B232"/>
+    <hyperlink r:id="rId210" ref="B233"/>
+    <hyperlink r:id="rId211" ref="B234"/>
+    <hyperlink r:id="rId212" ref="B235"/>
+    <hyperlink r:id="rId213" ref="B238"/>
+    <hyperlink r:id="rId214" ref="B239"/>
+    <hyperlink r:id="rId215" ref="B240"/>
+    <hyperlink r:id="rId216" ref="B241"/>
+    <hyperlink r:id="rId217" ref="B242"/>
+    <hyperlink r:id="rId218" ref="B243"/>
+    <hyperlink r:id="rId219" ref="B244"/>
+    <hyperlink r:id="rId220" ref="B245"/>
+    <hyperlink r:id="rId221" ref="B246"/>
+    <hyperlink r:id="rId222" ref="B247"/>
+    <hyperlink r:id="rId223" ref="B248"/>
+    <hyperlink r:id="rId224" ref="B249"/>
+    <hyperlink r:id="rId225" ref="B250"/>
+    <hyperlink r:id="rId226" ref="B251"/>
+    <hyperlink r:id="rId227" ref="B252"/>
+    <hyperlink r:id="rId228" ref="B253"/>
+    <hyperlink r:id="rId229" ref="B254"/>
+    <hyperlink r:id="rId230" ref="B255"/>
+    <hyperlink r:id="rId231" ref="B256"/>
+    <hyperlink r:id="rId232" ref="B257"/>
+    <hyperlink r:id="rId233" ref="B258"/>
+    <hyperlink r:id="rId234" ref="B259"/>
+    <hyperlink r:id="rId235" ref="B260"/>
+    <hyperlink r:id="rId30" ref="B261"/>
+    <hyperlink r:id="rId236" ref="B262"/>
+    <hyperlink r:id="rId237" ref="B263"/>
+    <hyperlink r:id="rId238" ref="B264"/>
+    <hyperlink r:id="rId239" ref="B265"/>
+    <hyperlink r:id="rId240" ref="B266"/>
+    <hyperlink r:id="rId241" ref="B267"/>
+    <hyperlink r:id="rId242" ref="B268"/>
+    <hyperlink r:id="rId243" ref="B269"/>
+    <hyperlink r:id="rId244" ref="B270"/>
+    <hyperlink r:id="rId79" ref="B271"/>
+    <hyperlink r:id="rId245" ref="B272"/>
+    <hyperlink r:id="rId246" ref="B275"/>
+    <hyperlink r:id="rId247" ref="B276"/>
+    <hyperlink r:id="rId248" ref="B277"/>
+    <hyperlink r:id="rId249" ref="B278"/>
+    <hyperlink r:id="rId250" ref="B279"/>
+    <hyperlink r:id="rId251" ref="B280"/>
+    <hyperlink r:id="rId252" ref="B281"/>
+    <hyperlink r:id="rId253" ref="B282"/>
+    <hyperlink r:id="rId254" ref="B283"/>
+    <hyperlink r:id="rId255" ref="B284"/>
+    <hyperlink r:id="rId256" ref="B285"/>
+    <hyperlink r:id="rId257" ref="B286"/>
+    <hyperlink r:id="rId258" ref="B287"/>
+    <hyperlink r:id="rId56" ref="B288"/>
+    <hyperlink r:id="rId259" ref="B289"/>
+    <hyperlink r:id="rId260" ref="B290"/>
+    <hyperlink r:id="rId261" ref="B291"/>
+    <hyperlink r:id="rId262" ref="B292"/>
+    <hyperlink r:id="rId263" ref="B293"/>
+    <hyperlink r:id="rId264" ref="B296"/>
+    <hyperlink r:id="rId265" ref="B297"/>
+    <hyperlink r:id="rId266" ref="B298"/>
+    <hyperlink r:id="rId267" ref="B299"/>
+    <hyperlink r:id="rId268" ref="B300"/>
+    <hyperlink r:id="rId61" ref="B301"/>
+    <hyperlink r:id="rId269" ref="B302"/>
+    <hyperlink r:id="rId270" ref="B303"/>
+    <hyperlink r:id="rId271" ref="B304"/>
+    <hyperlink r:id="rId272" ref="B305"/>
+    <hyperlink r:id="rId273" ref="B306"/>
+    <hyperlink r:id="rId274" ref="B307"/>
+    <hyperlink r:id="rId275" ref="B308"/>
+    <hyperlink r:id="rId276" ref="B309"/>
+    <hyperlink r:id="rId277" ref="B310"/>
+    <hyperlink r:id="rId278" ref="B311"/>
+    <hyperlink r:id="rId279" ref="B312"/>
+    <hyperlink r:id="rId280" ref="B313"/>
+    <hyperlink r:id="rId281" ref="B314"/>
+    <hyperlink r:id="rId282" ref="B315"/>
+    <hyperlink r:id="rId283" ref="B316"/>
+    <hyperlink r:id="rId284" ref="B317"/>
+    <hyperlink r:id="rId285" ref="B318"/>
+    <hyperlink r:id="rId286" ref="B319"/>
+    <hyperlink r:id="rId287" ref="B320"/>
+    <hyperlink r:id="rId288" ref="B321"/>
+    <hyperlink r:id="rId289" ref="B322"/>
+    <hyperlink r:id="rId290" ref="B323"/>
+    <hyperlink r:id="rId291" ref="B324"/>
+    <hyperlink r:id="rId292" ref="B325"/>
+    <hyperlink r:id="rId293" ref="B326"/>
+    <hyperlink r:id="rId294" ref="B327"/>
+    <hyperlink r:id="rId295" ref="B328"/>
+    <hyperlink r:id="rId296" ref="B329"/>
+    <hyperlink r:id="rId297" ref="B330"/>
+    <hyperlink r:id="rId298" ref="B331"/>
+    <hyperlink r:id="rId155" ref="B332"/>
+    <hyperlink r:id="rId299" ref="B333"/>
+    <hyperlink r:id="rId300" ref="B336"/>
+    <hyperlink r:id="rId301" ref="B337"/>
+    <hyperlink r:id="rId302" ref="B338"/>
+    <hyperlink r:id="rId303" ref="B339"/>
+    <hyperlink r:id="rId304" ref="B340"/>
+    <hyperlink r:id="rId305" ref="B341"/>
+    <hyperlink r:id="rId306" ref="B342"/>
+    <hyperlink r:id="rId307" ref="B343"/>
+    <hyperlink r:id="rId308" ref="B344"/>
+    <hyperlink r:id="rId150" ref="B345"/>
+    <hyperlink r:id="rId309" ref="B346"/>
+    <hyperlink r:id="rId310" ref="B347"/>
+    <hyperlink r:id="rId311" ref="B348"/>
+    <hyperlink r:id="rId243" ref="B349"/>
+    <hyperlink r:id="rId312" ref="B350"/>
+    <hyperlink r:id="rId313" ref="B351"/>
+    <hyperlink r:id="rId79" ref="B352"/>
+    <hyperlink r:id="rId314" ref="B353"/>
+    <hyperlink r:id="rId315" ref="B356"/>
+    <hyperlink r:id="rId316" ref="B357"/>
+    <hyperlink r:id="rId317" ref="B358"/>
+    <hyperlink r:id="rId318" ref="B359"/>
+    <hyperlink r:id="rId319" ref="B360"/>
+    <hyperlink r:id="rId246" ref="B361"/>
+    <hyperlink r:id="rId320" ref="B362"/>
+    <hyperlink r:id="rId321" ref="B363"/>
+    <hyperlink r:id="rId322" ref="B364"/>
+    <hyperlink r:id="rId323" ref="B365"/>
+    <hyperlink r:id="rId324" ref="B366"/>
+    <hyperlink r:id="rId325" ref="B367"/>
+    <hyperlink r:id="rId326" ref="B368"/>
+    <hyperlink r:id="rId327" ref="B369"/>
+    <hyperlink r:id="rId328" ref="B370"/>
+    <hyperlink r:id="rId329" ref="B371"/>
+    <hyperlink r:id="rId330" ref="B372"/>
+    <hyperlink r:id="rId331" ref="B373"/>
+    <hyperlink r:id="rId332" ref="B374"/>
+    <hyperlink r:id="rId333" ref="B375"/>
+    <hyperlink r:id="rId334" ref="B376"/>
+    <hyperlink r:id="rId335" ref="B377"/>
+    <hyperlink r:id="rId336" ref="B378"/>
+    <hyperlink r:id="rId337" ref="B379"/>
+    <hyperlink r:id="rId338" ref="B380"/>
+    <hyperlink r:id="rId339" ref="B381"/>
+    <hyperlink r:id="rId340" ref="B382"/>
+    <hyperlink r:id="rId341" ref="B383"/>
+    <hyperlink r:id="rId342" ref="B384"/>
+    <hyperlink r:id="rId343" ref="B385"/>
+    <hyperlink r:id="rId344" ref="B386"/>
+    <hyperlink r:id="rId345" ref="B387"/>
+    <hyperlink r:id="rId346" ref="B388"/>
+    <hyperlink r:id="rId347" ref="B389"/>
+    <hyperlink r:id="rId347" ref="B390"/>
+    <hyperlink r:id="rId259" ref="B391"/>
+    <hyperlink r:id="rId251" ref="B392"/>
+    <hyperlink r:id="rId348" ref="B393"/>
+    <hyperlink r:id="rId349" ref="B394"/>
+    <hyperlink r:id="rId350" ref="B395"/>
+    <hyperlink r:id="rId351" ref="B396"/>
+    <hyperlink r:id="rId352" ref="B397"/>
+    <hyperlink r:id="rId223" ref="B398"/>
+    <hyperlink r:id="rId353" ref="B399"/>
+    <hyperlink r:id="rId354" ref="B402"/>
+    <hyperlink r:id="rId355" ref="B403"/>
+    <hyperlink r:id="rId356" ref="B404"/>
+    <hyperlink r:id="rId81" ref="B405"/>
+    <hyperlink r:id="rId357" ref="B406"/>
+    <hyperlink r:id="rId358" ref="B407"/>
+    <hyperlink r:id="rId359" ref="B410"/>
+    <hyperlink r:id="rId360" ref="B411"/>
+    <hyperlink r:id="rId361" ref="B412"/>
+    <hyperlink r:id="rId362" ref="B413"/>
+    <hyperlink r:id="rId363" ref="B414"/>
+    <hyperlink r:id="rId364" ref="B415"/>
+    <hyperlink r:id="rId59" ref="B416"/>
+    <hyperlink r:id="rId253" ref="B417"/>
+    <hyperlink r:id="rId365" ref="B418"/>
+    <hyperlink r:id="rId366" ref="B419"/>
+    <hyperlink r:id="rId367" ref="B420"/>
+    <hyperlink r:id="rId368" ref="B421"/>
+    <hyperlink r:id="rId369" ref="B422"/>
+    <hyperlink r:id="rId76" ref="B423"/>
+    <hyperlink r:id="rId54" ref="B424"/>
+    <hyperlink r:id="rId370" ref="B425"/>
+    <hyperlink r:id="rId371" ref="B426"/>
+    <hyperlink r:id="rId372" ref="B427"/>
+    <hyperlink r:id="rId373" ref="B428"/>
+    <hyperlink r:id="rId374" ref="B429"/>
+    <hyperlink r:id="rId375" ref="B430"/>
+    <hyperlink r:id="rId376" ref="B431"/>
+    <hyperlink r:id="rId377" ref="B432"/>
+    <hyperlink r:id="rId378" ref="B433"/>
+    <hyperlink r:id="rId379" ref="B434"/>
+    <hyperlink r:id="rId380" ref="B435"/>
+    <hyperlink r:id="rId381" ref="B436"/>
+    <hyperlink r:id="rId382" ref="B437"/>
+    <hyperlink r:id="rId11" ref="B438"/>
+    <hyperlink r:id="rId383" ref="B439"/>
+    <hyperlink r:id="rId384" ref="B440"/>
+    <hyperlink r:id="rId385" ref="B441"/>
+    <hyperlink r:id="rId386" ref="B442"/>
+    <hyperlink r:id="rId387" ref="B443"/>
+    <hyperlink r:id="rId9" ref="B444"/>
+    <hyperlink r:id="rId388" ref="B445"/>
+    <hyperlink r:id="rId389" ref="B446"/>
+    <hyperlink r:id="rId62" ref="B447"/>
+    <hyperlink r:id="rId390" ref="B448"/>
+    <hyperlink r:id="rId253" ref="B449"/>
+    <hyperlink r:id="rId391" ref="B450"/>
+    <hyperlink r:id="rId67" ref="B451"/>
+    <hyperlink r:id="rId392" ref="B452"/>
+    <hyperlink r:id="rId393" ref="B453"/>
+    <hyperlink r:id="rId394" ref="B454"/>
+    <hyperlink r:id="rId395" ref="B455"/>
+    <hyperlink r:id="rId396" ref="B456"/>
+    <hyperlink r:id="rId26" ref="B457"/>
+    <hyperlink r:id="rId397" ref="B458"/>
+    <hyperlink r:id="rId398" ref="B459"/>
+    <hyperlink r:id="rId399" ref="B460"/>
+    <hyperlink r:id="rId58" ref="B461"/>
+    <hyperlink r:id="rId400" ref="B462"/>
+    <hyperlink r:id="rId401" ref="B463"/>
+    <hyperlink r:id="rId402" ref="B464"/>
+    <hyperlink r:id="rId403" ref="B465"/>
+    <hyperlink r:id="rId404" ref="B466"/>
+    <hyperlink r:id="rId405" ref="B467"/>
+    <hyperlink r:id="rId406" ref="B468"/>
+    <hyperlink r:id="rId407" ref="B469"/>
+    <hyperlink r:id="rId408" ref="B472"/>
+    <hyperlink r:id="rId409" ref="B473"/>
+    <hyperlink r:id="rId410" ref="B474"/>
+    <hyperlink r:id="rId411" ref="B475"/>
+    <hyperlink r:id="rId412" ref="B476"/>
+    <hyperlink r:id="rId413" ref="B477"/>
+    <hyperlink r:id="rId414" ref="B478"/>
+    <hyperlink r:id="rId415" ref="B479"/>
+    <hyperlink r:id="rId416" ref="B480"/>
+    <hyperlink r:id="rId417" ref="B481"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId447"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>